--- a/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_per_day_fixed_period_animal_03_tmp.xlsx
+++ b/src/analysis_examples/er4000/results_er4000/animal_03/cosinor_per_day_fixed_period_animal_03_tmp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,60 +574,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006996786639991148</v>
+        <v>7.986520436764621e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006996786639991148</v>
+        <v>7.986520436764621e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1.012663527895366</v>
+        <v>1.174832866107277</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.43323808869203617, 1.5920889670986966]</t>
+          <t>[0.6774494199511061, 1.6722163122634477]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001551255147388853</v>
+        <v>7.378242988864692e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001551255147388853</v>
+        <v>7.378242988864692e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.849105585896695</v>
+        <v>2.006342455445733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.5032109632206963, -1.1950002085726945]</t>
+          <t>[1.5409213215805773, 2.4717635893108882]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>7.781620633418029e-06</v>
+        <v>1.266485405437834e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>7.781620633418029e-06</v>
+        <v>1.266485405437834e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>35.72990057078474</v>
+        <v>36.37235710853363</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[35.410161638461744, 36.04963950310773]</t>
+          <t>[36.10085935609391, 36.643854860973356]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.759939939939986</v>
+        <v>17.35735735735773</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3686686686687</v>
+        <v>15.4684684684688</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.151211211211272</v>
+        <v>19.24624624624667</v>
       </c>
     </row>
     <row r="3">
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -660,60 +660,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001262072973639672</v>
+        <v>0.7559998035656654</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001262072973639672</v>
+        <v>0.7559998035656654</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.809594895749477</v>
+        <v>0.2322841866477745</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[0.35325737474106234, 1.2659324167578916]</t>
+          <t>[-0.5788610698558863, 1.0434294431514353]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001361727201197205</v>
+        <v>0.5578533949470161</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001361727201197205</v>
+        <v>0.5578533949470161</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.647842392873926</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-2.339684618889696, -0.9560001668581561]</t>
+          <t>[-6.201422135014086, 0.06289474781961513]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>6.693636547061566e-05</v>
+        <v>0.05435856310286513</v>
       </c>
       <c r="S3" t="n">
-        <v>6.693636547061566e-05</v>
+        <v>0.05435856310286513</v>
       </c>
       <c r="T3" t="n">
-        <v>35.59529704686864</v>
+        <v>36.67994463118375</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[35.32522782593492, 35.86536626780236]</t>
+          <t>[36.238985034076535, 37.12090422829097]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.024164164164208</v>
+        <v>12.45645645645672</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.494934934934963</v>
+        <v>-0.2552552552552587</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.553393393393453</v>
+        <v>25.16816816816871</v>
       </c>
     </row>
     <row r="4">
@@ -746,60 +746,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002183395252192022</v>
+        <v>0.000311267187908526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002183395252192022</v>
+        <v>0.000311267187908526</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.050271083293843</v>
+        <v>1.151523461634092</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0.36062382532250226, 1.7399183412651844]</t>
+          <t>[0.4745045368097678, 1.828542386458416]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004644871262703187</v>
+        <v>0.00195329402942046</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004644871262703187</v>
+        <v>0.00195329402942046</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.169842309444848</v>
+        <v>2.245342497160272</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-1.8868424345884636, -0.4528421843012316]</t>
+          <t>[1.6792897667837332, 2.811395227536811]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.002742403555909823</v>
+        <v>5.019309989862109e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>0.002742403555909823</v>
+        <v>5.019309989862109e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>35.88368916460934</v>
+        <v>36.31961498587785</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[35.51054811484357, 36.256830214375114]</t>
+          <t>[35.967186838001226, 36.67204313375447]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -809,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.276696696696725</v>
+        <v>16.38738738738774</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.655495495495507</v>
+        <v>14.0900900900904</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.897897897897941</v>
+        <v>18.68468468468508</v>
       </c>
     </row>
     <row r="5">
@@ -832,60 +832,60 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.004365034556691794</v>
+        <v>5.404254040941581e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004365034556691794</v>
+        <v>5.404254040941581e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.9702484632414077</v>
+        <v>1.019892892537289</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0.3375371179422295, 1.6029598085405858]</t>
+          <t>[0.7184986697809137, 1.3212871152936643]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.004414312741678694</v>
+        <v>6.033566275487345e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004414312741678694</v>
+        <v>6.033566275487345e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.484316048542925</v>
+        <v>1.641552918091963</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.339684618889696, -0.6289474781961539]</t>
+          <t>[1.2767633807381937, 2.0063424554457328]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.001649063960159847</v>
+        <v>6.108897165901794e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001649063960159847</v>
+        <v>6.108897165901794e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>35.53622736404591</v>
+        <v>36.44835906188995</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[35.16564413705518, 35.906810591036646]</t>
+          <t>[36.252048187653806, 36.644669936126085]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>5.426346346346381</v>
+        <v>18.83783783783824</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.299299299299312</v>
+        <v>17.35735735735773</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.553393393393451</v>
+        <v>20.31831831831876</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -918,60 +918,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.97000000000015</v>
+        <v>25.50000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005533664410002359</v>
+        <v>0.01180819779753739</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005533664410002359</v>
+        <v>0.01180819779753739</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>0.4498910038576547</v>
+        <v>1.062185288964358</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.18568676542537332, 0.714095242289936]</t>
+          <t>[0.2160749349935962, 1.9082956429351192]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001934749353700305</v>
+        <v>0.01632882013187653</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001934749353700305</v>
+        <v>0.01632882013187653</v>
       </c>
       <c r="P6" t="n">
-        <v>1.10065808684327</v>
+        <v>0.4339737599553457</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.7170266154755005]</t>
+          <t>[-0.44026323473730855, 1.308210754648]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001285891803109562</v>
+        <v>0.313662507450249</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001285891803109562</v>
+        <v>0.313662507450249</v>
       </c>
       <c r="T6" t="n">
-        <v>35.63878855294503</v>
+        <v>37.2010797020853</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[35.49907856692026, 35.7784985389698]</t>
+          <t>[36.74597023114582, 37.656189173024785]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.94622622622636</v>
+        <v>23.73873873873925</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.69291291291303</v>
+        <v>20.19069069069113</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.19953953953968</v>
+        <v>27.28678678678737</v>
       </c>
     </row>
     <row r="7">
@@ -995,69 +995,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.97000000000015</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04979449420422832</v>
+        <v>6.108624717171551e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04979449420422832</v>
+        <v>6.108624717171551e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>0.3578798312253646</v>
+        <v>1.479673354717583</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.039990281006133443, 0.7557499434568626]</t>
+          <t>[1.1592200266733315, 1.8001266827618352]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.07540458850278986</v>
+        <v>3.922930869038055e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07540458850278986</v>
+        <v>3.922930869038055e-09</v>
       </c>
       <c r="P7" t="n">
         <v>2.35855304323558</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6037895790683088, 5.320895665539469]</t>
+          <t>[2.144710900648888, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1126421171075389</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1126421171075389</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T7" t="n">
-        <v>35.64399995457359</v>
+        <v>36.70430808519991</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[35.444156706512544, 35.84384320263463]</t>
+          <t>[36.540661470739565, 36.867954699660245]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>14.34762762762772</v>
+        <v>14.90354354354373</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.517927927927952</v>
+        <v>14.09149149149167</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.1773273273275</v>
+        <v>15.71559559559579</v>
       </c>
     </row>
     <row r="8">
@@ -1081,69 +1081,69 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1_control_dl</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.97000000000015</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1142820516458934</v>
+        <v>4.818668020156736e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1142820516458934</v>
+        <v>4.818668020156736e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.2712061117884303</v>
+        <v>0.9562126323056575</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.07226319126165848, 0.6146754148385192]</t>
+          <t>[0.6968783984657776, 1.2155468661455373]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1154651634842137</v>
+        <v>1.614002709260376e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1154651634842137</v>
+        <v>1.614002709260376e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.6289474781961548</v>
+        <v>2.534658337130504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.4277637561690435, 2.169868799776734]</t>
+          <t>[2.245342497160272, 2.8239741771007356]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6450773864839885</v>
+        <v>2.398081733190338e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6450773864839885</v>
+        <v>2.398081733190338e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>35.37837338522602</v>
+        <v>36.65293042800972</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[35.19537473348343, 35.561372036968606]</t>
+          <t>[36.51844409408303, 36.787416761936406]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2.299299299299314</v>
+        <v>14.23479479479497</v>
       </c>
       <c r="Y8" t="n">
-        <v>-7.932582582582636</v>
+        <v>13.13613613613629</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.53118118118126</v>
+        <v>15.33345345345364</v>
       </c>
     </row>
     <row r="9">
@@ -1167,69 +1167,69 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2229519207078807</v>
+        <v>1.444824824226032e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2229519207078807</v>
+        <v>1.444824824226032e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.1294608203326817</v>
+        <v>0.9854671841295222</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-0.06282943744520608, 0.32175107811056947]</t>
+          <t>[0.6618408153509883, 1.309093552908056]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1760801723427043</v>
+        <v>2.801783791417378e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1760801723427043</v>
+        <v>2.801783791417378e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.899447874484274</v>
+        <v>2.496921488438734</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.2327105669325764, 6.031606315901124]</t>
+          <t>[2.169868799776734, 2.823974177100734]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.06786798455224807</v>
+        <v>3.579359031391505e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06786798455224807</v>
+        <v>3.579359031391505e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>35.00595402938066</v>
+        <v>36.6677844190876</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[34.899672797052006, 35.112235261709316]</t>
+          <t>[36.498319592944846, 36.837249245230346]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>12.81721721721737</v>
+        <v>14.37809809809828</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9529529529529679</v>
+        <v>13.1361361361363</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.68148148148177</v>
+        <v>15.62006006006025</v>
       </c>
     </row>
     <row r="10">
@@ -1257,65 +1257,65 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003646758113858839</v>
+        <v>2.787891251188057e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003646758113858839</v>
+        <v>2.787891251188057e-09</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.39918058407331</v>
+        <v>1.159105978540133</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.17433894926083227, 0.6240222188857878]</t>
+          <t>[0.8485314788935341, 1.4696804781867314]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.001353205212573094</v>
+        <v>1.33349536968197e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001353205212573094</v>
+        <v>1.33349536968197e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>2.207605648468503</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.6541318676558863, 2.7610794292811196]</t>
+          <t>[2.0692372032653488, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.587721735838102e-08</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>4.587721735838102e-08</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>35.61335988624354</v>
+        <v>36.38299639818091</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[35.4929150608072, 35.73380471167989]</t>
+          <t>[36.225106199765555, 36.54088659659627]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15.43783783783802</v>
+        <v>14.99907907907926</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.3413413413415</v>
+        <v>13.99595595595613</v>
       </c>
       <c r="Z10" t="n">
-        <v>17.53433433433455</v>
+        <v>16.0022022022024</v>
       </c>
     </row>
     <row r="11">
@@ -1343,65 +1343,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.323903663277061e-05</v>
+        <v>3.093104683493664e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>3.323903663277061e-05</v>
+        <v>3.093104683493664e-07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.5297422190475913</v>
+        <v>1.179327075216751</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.3133098957814404, 0.7461745423137423]</t>
+          <t>[0.7672368616486338, 1.5914172887848679]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.846686140491663e-05</v>
+        <v>6.597823387410884e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>4.846686140491663e-05</v>
+        <v>6.597823387410884e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>1.654131867655887</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.1761317842268104, 2.132131951084964]</t>
+          <t>[2.220184598032427, 2.924605773612119]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.302531670941079e-07</v>
+        <v>8.453238109495942e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>4.302531670941079e-07</v>
+        <v>8.453238109495942e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>35.79453707174785</v>
+        <v>36.42403940403636</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[35.66366908028071, 35.925405063214995]</t>
+          <t>[36.211516068119636, 36.63656273995309]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>17.53433433433454</v>
+        <v>14.09149149149166</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.72372372372391</v>
+        <v>12.75399399399415</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.34494494494517</v>
+        <v>15.42898898898918</v>
       </c>
     </row>
     <row r="12">
@@ -1425,69 +1425,69 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4614935008180651</v>
+        <v>2.830467416004012e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4614935008180651</v>
+        <v>2.830467416004012e-08</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.07533078713112218</v>
+        <v>1.0525564558512</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.08200983226918623, 0.2326714065314306]</t>
+          <t>[0.7356502924388977, 1.3694626192635013]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3307468317480335</v>
+        <v>7.972443436532473e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3307468317480335</v>
+        <v>7.972443436532473e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1257894956392311</v>
+        <v>2.622710984077965</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-3.2642374118380433, 3.012658420559581]</t>
+          <t>[2.3082372449798876, 2.9371847231760433]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.9343616768899359</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9343616768899359</v>
+        <v>6.350475700855895e-14</v>
       </c>
       <c r="T12" t="n">
-        <v>35.24271240066237</v>
+        <v>36.60453286827526</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[35.155013678199865, 35.330411123124875]</t>
+          <t>[36.44037239903484, 36.76869333751567]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0.4764764764764848</v>
+        <v>13.90042042042059</v>
       </c>
       <c r="Y12" t="n">
-        <v>-11.41161161161174</v>
+        <v>12.70622622622638</v>
       </c>
       <c r="Z12" t="n">
-        <v>12.36456456456471</v>
+        <v>15.0946146146148</v>
       </c>
     </row>
     <row r="13">
@@ -1515,65 +1515,65 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.910219925629121e-10</v>
+        <v>1.727005205509613e-10</v>
       </c>
       <c r="I13" t="n">
-        <v>3.910219925629121e-10</v>
+        <v>1.727005205509613e-10</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>0.8755977448428141</v>
+        <v>1.102676987003488</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[0.6705813212193448, 1.0806141684662833]</t>
+          <t>[0.8571977112389355, 1.3481562627680397]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.480945721610283e-08</v>
+        <v>6.299254895480999e-09</v>
       </c>
       <c r="O13" t="n">
-        <v>1.480945721610283e-08</v>
+        <v>6.299254895480999e-09</v>
       </c>
       <c r="P13" t="n">
-        <v>2.207605648468503</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.9811845563178867, 2.434026740619119]</t>
+          <t>[2.169868799776733, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S13" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T13" t="n">
-        <v>35.81319818462106</v>
+        <v>36.84099748002166</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[35.70628384645114, 35.92011252279099]</t>
+          <t>[36.71191334963347, 36.97008161040984]</t>
         </is>
       </c>
       <c r="V13" t="n">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.43783783783802</v>
+        <v>14.76024024024042</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.58018018018035</v>
+        <v>13.90042042042059</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.29549549549569</v>
+        <v>15.62006006006025</v>
       </c>
     </row>
     <row r="14">
@@ -1597,69 +1597,69 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04429341434478828</v>
+        <v>9.986883733326124e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04429341434478828</v>
+        <v>9.986883733326124e-07</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>0.3332725470473861</v>
+        <v>0.9519014991260057</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.016047887881295964, 0.6825929819760681]</t>
+          <t>[0.5921663852240435, 1.311636613027968]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.06047066014799896</v>
+        <v>1.846844504260758e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.06047066014799896</v>
+        <v>1.846844504260758e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.64157940842385</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-4.1384744065306975, -1.144684410317002]</t>
+          <t>[2.19502669890458, 2.949763672739966]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.001426464732600108</v>
+        <v>3.182121233180624e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>0.001426464732600108</v>
+        <v>3.182121233180624e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>35.33910367487676</v>
+        <v>36.61168972466751</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[35.156740909998, 35.52146643975552]</t>
+          <t>[36.42675829216927, 36.79662115716576]</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>10.00600600600612</v>
+        <v>14.09149149149166</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.33593593593599</v>
+        <v>12.65845845845861</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.67607607607626</v>
+        <v>15.52452452452471</v>
       </c>
     </row>
     <row r="15">
@@ -1687,65 +1687,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001189582330434202</v>
+        <v>7.326016528375057e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001189582330434202</v>
+        <v>7.326016528375057e-05</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>0.2531054944921323</v>
+        <v>0.953976384188497</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[0.1324271154313017, 0.37378387355296283]</t>
+          <t>[0.5236242976094978, 1.384328470767496]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0002736082958372243</v>
+        <v>0.000151259510652535</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0002736082958372243</v>
+        <v>0.000151259510652535</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.333368653775848</v>
+        <v>2.861711025792504</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.8868424345884636, -0.779894872963232]</t>
+          <t>[2.320816194543811, 3.4026058570411966]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.854204986377454e-05</v>
+        <v>3.544944338074174e-10</v>
       </c>
       <c r="S15" t="n">
-        <v>5.854204986377454e-05</v>
+        <v>3.544944338074174e-10</v>
       </c>
       <c r="T15" t="n">
-        <v>34.8763835000513</v>
+        <v>36.53528316224229</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[34.80717464958839, 34.94559235051422]</t>
+          <t>[36.28293364770515, 36.78763267677944]</t>
         </is>
       </c>
       <c r="V15" t="n">
@@ -1755,13 +1755,13 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>5.050650650650709</v>
+        <v>12.99283283283299</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.95415415415419</v>
+        <v>10.93881881881896</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.147147147147229</v>
+        <v>15.04684684684703</v>
       </c>
     </row>
     <row r="16">
@@ -1773,65 +1773,65 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.93835598075276e-08</v>
+        <v>0.0003535064438794366</v>
       </c>
       <c r="I16" t="n">
-        <v>2.93835598075276e-08</v>
+        <v>0.0003535064438794366</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.016734393939036</v>
+        <v>0.8744392294763124</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[0.7182562007236903, 1.315212587154381]</t>
+          <t>[0.3883953771735307, 1.360483081779094]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.461792913497021e-07</v>
+        <v>0.001203586235930532</v>
       </c>
       <c r="O16" t="n">
-        <v>5.461792913497021e-07</v>
+        <v>0.001203586235930532</v>
       </c>
       <c r="P16" t="n">
-        <v>2.094395102393195</v>
+        <v>2.773658378845042</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 2.4088688414912722]</t>
+          <t>[2.169868799776734, 3.3774479579133505]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>4.956257626531624e-12</v>
+        <v>4.287006749592592e-09</v>
       </c>
       <c r="S16" t="n">
-        <v>4.956257626531624e-12</v>
+        <v>4.287006749592592e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>35.99972350397175</v>
+        <v>36.6188430376171</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[35.8415116005932, 36.1579354073503]</t>
+          <t>[36.3546366564468, 36.883049418787394]</t>
         </is>
       </c>
       <c r="V16" t="n">
@@ -1841,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>15.86666666666686</v>
+        <v>13.32720720720737</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.67547547547565</v>
+        <v>11.03435435435449</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.05785785785806</v>
+        <v>15.62006006006025</v>
       </c>
     </row>
     <row r="17">
@@ -1859,65 +1859,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>6.060252409567646e-06</v>
+        <v>5.792081034128316e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>6.060252409567646e-06</v>
+        <v>5.792081034128316e-06</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.6538926441636477</v>
+        <v>0.9116208022690486</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[0.3756322002388117, 0.9321530880884836]</t>
+          <t>[0.5348562084983826, 1.2883853960397147]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>7.831115519030263e-05</v>
+        <v>5.559854307723988e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>7.831115519030263e-05</v>
+        <v>5.559854307723988e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>2.207605648468503</v>
+        <v>2.610132034514042</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 2.6352899336418885]</t>
+          <t>[2.19502669890458, 3.025237370123504]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>5.522129420398869e-10</v>
+        <v>1.470201738129617e-11</v>
       </c>
       <c r="S17" t="n">
-        <v>5.522129420398869e-10</v>
+        <v>1.470201738129617e-11</v>
       </c>
       <c r="T17" t="n">
-        <v>35.91635173780546</v>
+        <v>36.53219937471248</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[35.7733679296339, 36.05933554597703]</t>
+          <t>[36.332861613378064, 36.7315371360469]</t>
         </is>
       </c>
       <c r="V17" t="n">
@@ -1927,13 +1927,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.43783783783802</v>
+        <v>13.94818818818836</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.81781781781798</v>
+        <v>12.371851851852</v>
       </c>
       <c r="Z17" t="n">
-        <v>17.05785785785806</v>
+        <v>15.52452452452471</v>
       </c>
     </row>
     <row r="18">
@@ -1945,65 +1945,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>4.214508062827527e-05</v>
+        <v>0.0001458648701351262</v>
       </c>
       <c r="I18" t="n">
-        <v>4.214508062827527e-05</v>
+        <v>0.0001458648701351262</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.5830275337263586</v>
+        <v>0.8942823731868081</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[0.3345463584088364, 0.8315087090438809]</t>
+          <t>[0.47092886577580373, 1.3176358805978126]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>7.969887444203572e-05</v>
+        <v>0.0002539224648607785</v>
       </c>
       <c r="O18" t="n">
-        <v>7.969887444203572e-05</v>
+        <v>0.0002539224648607785</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33965812855781</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 1.8050792624229643]</t>
+          <t>[2.3459740936716567, 3.478079554424736]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>6.102094812776571e-06</v>
+        <v>5.864420060675002e-10</v>
       </c>
       <c r="S18" t="n">
-        <v>6.102094812776571e-06</v>
+        <v>5.864420060675002e-10</v>
       </c>
       <c r="T18" t="n">
-        <v>35.70827493641017</v>
+        <v>36.44672453919011</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[35.5613505019528, 35.85519937086754]</t>
+          <t>[36.19647340892787, 36.69697566945236]</t>
         </is>
       </c>
       <c r="V18" t="n">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>18.72552552552575</v>
+        <v>12.80176176176192</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.96256256256276</v>
+        <v>10.65221221221234</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.48848848848873</v>
+        <v>14.9513113113115</v>
       </c>
     </row>
     <row r="19">
@@ -2031,65 +2031,65 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>7.728319540545314e-06</v>
+        <v>8.865130851631875e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>7.728319540545314e-06</v>
+        <v>8.865130851631875e-13</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.5484584267967634</v>
+        <v>1.318214268972408</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[0.33884620580682423, 0.7580706477867025]</t>
+          <t>[1.1055992350668582, 1.530829302877958]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.130299633451571e-05</v>
+        <v>1.914801650571007e-11</v>
       </c>
       <c r="O19" t="n">
-        <v>2.130299633451571e-05</v>
+        <v>1.914801650571007e-11</v>
       </c>
       <c r="P19" t="n">
-        <v>1.867974010242579</v>
+        <v>2.660447832769735</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 2.283079345852042]</t>
+          <t>[2.4843425388748113, 2.8365531266646586]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.108897165901794e-09</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.108897165901794e-09</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>35.47640277694217</v>
+        <v>36.70375384402119</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[35.35457150252344, 35.598234051360905]</t>
+          <t>[36.58669921819423, 36.82080846984816]</t>
         </is>
       </c>
       <c r="V19" t="n">
@@ -2099,13 +2099,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.72432432432452</v>
+        <v>13.75711711711728</v>
       </c>
       <c r="Y19" t="n">
-        <v>15.15195195195213</v>
+        <v>13.08836836836853</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.29669669669692</v>
+        <v>14.42586586586604</v>
       </c>
     </row>
     <row r="20">
@@ -2117,65 +2117,65 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001949431249732569</v>
+        <v>1.583592460940864e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001949431249732569</v>
+        <v>1.583592460940864e-06</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>0.513162678337892</v>
+        <v>0.8632156741554766</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[0.2691662715257621, 0.7571590851500218]</t>
+          <t>[0.5410250616412497, 1.1854062866697035]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.0002658309199732312</v>
+        <v>1.574897976919232e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0002658309199732312</v>
+        <v>1.574897976919232e-05</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.018947895341543</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-3.610158524845929, -2.4277372658371577]</t>
+          <t>[2.333395144107734, 3.163605815326659]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.696367904623912e-10</v>
+        <v>5.538236536040131e-12</v>
       </c>
       <c r="S20" t="n">
-        <v>6.696367904623912e-10</v>
+        <v>5.538236536040131e-12</v>
       </c>
       <c r="T20" t="n">
-        <v>35.36796739317182</v>
+        <v>36.48912702247654</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[35.220640539011676, 35.51529424733196]</t>
+          <t>[36.31606852694222, 36.66218551801087]</t>
         </is>
       </c>
       <c r="V20" t="n">
@@ -2185,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>11.43543543543557</v>
+        <v>13.4227427427429</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.195995995996105</v>
+        <v>11.84640640640655</v>
       </c>
       <c r="Z20" t="n">
-        <v>13.67487487487504</v>
+        <v>14.99907907907926</v>
       </c>
     </row>
     <row r="21">
@@ -2203,65 +2203,65 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>6.815659148173836e-13</v>
+        <v>7.763101417257445e-08</v>
       </c>
       <c r="I21" t="n">
-        <v>6.815659148173836e-13</v>
+        <v>7.763101417257445e-08</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.238947206681974</v>
+        <v>1.121149933754648</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1.0718919463182885, 1.40600246704566]</t>
+          <t>[0.8171785506537255, 1.42512131685557]</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>6.283862319378386e-13</v>
+        <v>1.60606107746375e-07</v>
       </c>
       <c r="O21" t="n">
-        <v>6.283862319378386e-13</v>
+        <v>1.60606107746375e-07</v>
       </c>
       <c r="P21" t="n">
-        <v>3.037816319687427</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[2.8994478744842733, 3.1761847648905817]</t>
+          <t>[2.584974135386196, 3.2139216135823516]</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>8.659739592076221e-15</v>
       </c>
       <c r="T21" t="n">
-        <v>35.74333128536527</v>
+        <v>36.52421242886844</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>[35.63444063391249, 35.852221936818054]</t>
+          <t>[36.338147483676636, 36.71027737406024]</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -2271,13 +2271,13 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12.29309309309324</v>
+        <v>12.84952952952968</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.76896896896911</v>
+        <v>11.65533533533547</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.81721721721737</v>
+        <v>14.04372372372389</v>
       </c>
     </row>
     <row r="22">
@@ -2289,65 +2289,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.047681670196532e-05</v>
+        <v>1.712651594987236e-07</v>
       </c>
       <c r="I22" t="n">
-        <v>1.047681670196532e-05</v>
+        <v>1.712651594987236e-07</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
-        <v>0.9978341630840539</v>
+        <v>1.059516425943357</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[0.6277393403650251, 1.3679289858030828]</t>
+          <t>[0.7478451850408305, 1.3711876668458842]</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>1.451768608107251e-05</v>
+        <v>5.631773660752515e-07</v>
       </c>
       <c r="O22" t="n">
-        <v>1.451768608107251e-05</v>
+        <v>5.631773660752515e-07</v>
       </c>
       <c r="P22" t="n">
-        <v>-2.96863209708585</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[-3.421474281387081, -2.5157899127846197]</t>
+          <t>[2.5975530849501194, 3.2516584622741194]</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>6.691314169415818e-12</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="S22" t="n">
-        <v>6.691314169415818e-12</v>
+        <v>1.598721155460225e-14</v>
       </c>
       <c r="T22" t="n">
-        <v>35.32039968231558</v>
+        <v>36.50753262243145</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>[35.0921088319152, 35.548690532715966]</t>
+          <t>[36.323212583791474, 36.69185266107142]</t>
         </is>
       </c>
       <c r="V22" t="n">
@@ -2357,13 +2357,13 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>11.24484484484498</v>
+        <v>12.75399399399415</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.529529529529643</v>
+        <v>11.51203203203218</v>
       </c>
       <c r="Z22" t="n">
-        <v>12.96016016016031</v>
+        <v>13.99595595595613</v>
       </c>
     </row>
     <row r="23">
@@ -2375,65 +2375,65 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.009248148777566e-06</v>
+        <v>8.840733634052356e-08</v>
       </c>
       <c r="I23" t="n">
-        <v>3.009248148777566e-06</v>
+        <v>8.840733634052356e-08</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
-        <v>0.6936144560202742</v>
+        <v>0.9706681194475237</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>[0.43382596932717377, 0.9534029427133746]</t>
+          <t>[0.7126301616662687, 1.2287060772287788]</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1.646831442037033e-05</v>
+        <v>1.176766613042446e-07</v>
       </c>
       <c r="O23" t="n">
-        <v>1.646831442037033e-05</v>
+        <v>1.176766613042446e-07</v>
       </c>
       <c r="P23" t="n">
-        <v>2.786237328408966</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[2.35855304323558, 3.213921613582351]</t>
+          <t>[-3.3963163822592364, -2.7925268031909276]</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>7.532641177476762e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="S23" t="n">
-        <v>7.532641177476762e-12</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="T23" t="n">
-        <v>35.94575006110466</v>
+        <v>36.34316707092535</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>[35.80049668880075, 36.091003433408574]</t>
+          <t>[36.18080499985166, 36.505529141999034]</t>
         </is>
       </c>
       <c r="V23" t="n">
@@ -2443,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>13.2460460460462</v>
+        <v>11.75087087087102</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.62602602602616</v>
+        <v>10.60444444444457</v>
       </c>
       <c r="Z23" t="n">
-        <v>14.86606606606624</v>
+        <v>12.89729729729746</v>
       </c>
     </row>
     <row r="24">
@@ -2461,65 +2461,65 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0003900743401127338</v>
+        <v>4.250013221684945e-06</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003900743401127338</v>
+        <v>4.250013221684945e-06</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>0.2994283824340478</v>
+        <v>0.7952703600868496</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>[0.13523690685814316, 0.4636198580099524]</t>
+          <t>[0.4870931495809643, 1.103447570592735]</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.001065861662327361</v>
+        <v>2.535559887228978e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001065861662327361</v>
+        <v>2.535559887228978e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>-1.157263359880925</v>
+        <v>-2.84284260144662</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[-1.7862108380770794, -0.5283158816847697]</t>
+          <t>[-3.257947937056082, -2.427737265837157]</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>0.0009829636437888034</v>
+        <v>2.911226815172085e-12</v>
       </c>
       <c r="S24" t="n">
-        <v>0.0009829636437888034</v>
+        <v>2.911226815172085e-12</v>
       </c>
       <c r="T24" t="n">
-        <v>35.08853631665981</v>
+        <v>36.52095899979264</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>[34.99785141960248, 35.17922121371714]</t>
+          <t>[36.35038668233223, 36.69153131725305]</t>
         </is>
       </c>
       <c r="V24" t="n">
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4.383583583583636</v>
+        <v>10.79551551551565</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.001201201201225</v>
+        <v>9.219179179179291</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.765965965966047</v>
+        <v>12.37185185185201</v>
       </c>
     </row>
     <row r="25">
@@ -2547,65 +2547,65 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.748079156982385e-07</v>
+        <v>4.076896842120092e-06</v>
       </c>
       <c r="I25" t="n">
-        <v>1.748079156982385e-07</v>
+        <v>4.076896842120092e-06</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
-        <v>0.90720073035342</v>
+        <v>0.8497079492103943</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[0.6150043378546002, 1.1993971228522398]</t>
+          <t>[0.540960639299719, 1.1584552591210695]</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.127916727268087e-06</v>
+        <v>1.110660292003018e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>2.127916727268087e-06</v>
+        <v>1.110660292003018e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>2.534658337130504</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 2.8742899753564277]</t>
+          <t>[-3.383737432695313, -2.553526761476388]</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>5.566658245470535e-13</v>
+        <v>1.268540827936704e-12</v>
       </c>
       <c r="S25" t="n">
-        <v>5.566658245470535e-13</v>
+        <v>1.268540827936704e-12</v>
       </c>
       <c r="T25" t="n">
-        <v>35.92545092542349</v>
+        <v>36.53982478007069</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>[35.76755644905249, 36.08334540179449]</t>
+          <t>[36.358047552197235, 36.72160200794414]</t>
         </is>
       </c>
       <c r="V25" t="n">
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>14.19899899899917</v>
+        <v>11.27319319319333</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.91251251251266</v>
+        <v>9.696856856856973</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.48548548548567</v>
+        <v>12.84952952952969</v>
       </c>
     </row>
     <row r="26">
@@ -2633,65 +2633,65 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000176145153761964</v>
+        <v>1.087158763013463e-08</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000176145153761964</v>
+        <v>1.087158763013463e-08</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
-        <v>0.6606825339280249</v>
+        <v>1.035484039923162</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>[0.2938308140733241, 1.0275342537827257]</t>
+          <t>[0.7929419003335312, 1.2780261795127927]</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.001192582426805755</v>
+        <v>1.490111944946193e-08</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001192582426805755</v>
+        <v>1.490111944946193e-08</v>
       </c>
       <c r="P26" t="n">
-        <v>2.308237244979888</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[1.7925003128590409, 2.8239741771007343]</t>
+          <t>[-3.320842684875698, -2.817684702318773]</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>6.703654076289922e-09</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.703654076289922e-09</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>36.1124239759677</v>
+        <v>36.36771989083855</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>[35.92522360962934, 36.29962434230606]</t>
+          <t>[36.21456463841252, 36.52087514326458]</t>
         </is>
       </c>
       <c r="V26" t="n">
@@ -2701,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>15.05665665665684</v>
+        <v>11.65533533533548</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.10310310310326</v>
+        <v>10.69997997998011</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.01021021021041</v>
+        <v>12.61069069069085</v>
       </c>
     </row>
     <row r="27">
@@ -2719,65 +2719,65 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.966021986379076e-07</v>
+        <v>4.132974887882668e-07</v>
       </c>
       <c r="I27" t="n">
-        <v>3.966021986379076e-07</v>
+        <v>4.132974887882668e-07</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>0.5154691487198235</v>
+        <v>1.029056378310823</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>[0.34220723557728405, 0.688731061862363]</t>
+          <t>[0.712578403949319, 1.3455343526723276]</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.877922864159444e-06</v>
+        <v>1.090611326359792e-06</v>
       </c>
       <c r="O27" t="n">
-        <v>3.877922864159444e-06</v>
+        <v>1.090611326359792e-06</v>
       </c>
       <c r="P27" t="n">
-        <v>2.735921530153273</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[2.3837109423634266, 3.0881321179431196]</t>
+          <t>[2.647868883205811, 3.3271321596576597]</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.55351295663786e-13</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="S27" t="n">
-        <v>2.55351295663786e-13</v>
+        <v>2.220446049250313e-14</v>
       </c>
       <c r="T27" t="n">
-        <v>35.63237382905369</v>
+        <v>36.57719293688123</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>[35.53785196789146, 35.72689569021592]</t>
+          <t>[36.38794320050248, 36.76644267325999]</t>
         </is>
       </c>
       <c r="V27" t="n">
@@ -2787,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>13.43663663663679</v>
+        <v>12.51515515515531</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.10250250250265</v>
+        <v>11.22542542542556</v>
       </c>
       <c r="Z27" t="n">
-        <v>14.77077077077094</v>
+        <v>13.80488488488506</v>
       </c>
     </row>
     <row r="28">
@@ -2805,65 +2805,65 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.315734021734016e-07</v>
+        <v>8.629572628482407e-06</v>
       </c>
       <c r="I28" t="n">
-        <v>1.315734021734016e-07</v>
+        <v>8.629572628482407e-06</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.8525714113809109</v>
+        <v>0.9161607295985483</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[0.5805440907371384, 1.1245987320246833]</t>
+          <t>[0.5937467769855402, 1.2385746822115564]</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1.85978034639156e-06</v>
+        <v>7.260427832056493e-06</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85978034639156e-06</v>
+        <v>7.260427832056493e-06</v>
       </c>
       <c r="P28" t="n">
-        <v>2.547237286694427</v>
+        <v>3.125868966634889</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 2.8868689249203507]</t>
+          <t>[2.7107636310254266, 3.5409743022443516]</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>5.055955654142963e-13</v>
+        <v>4.676259379721159e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>5.055955654142963e-13</v>
+        <v>4.676259379721159e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>36.0492708108079</v>
+        <v>36.40378728282893</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>[35.903531030066986, 36.19501059154881]</t>
+          <t>[36.197231483901945, 36.610343081755914]</t>
         </is>
       </c>
       <c r="V28" t="n">
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>14.15135135135152</v>
+        <v>11.98970970970986</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.86486486486502</v>
+        <v>10.4133733733735</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.43783783783802</v>
+        <v>13.56604604604621</v>
       </c>
     </row>
     <row r="29">
@@ -2891,65 +2891,65 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02764238217648962</v>
+        <v>2.025270386951661e-07</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02764238217648962</v>
+        <v>2.025270386951661e-07</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.3783856104165189</v>
+        <v>0.997281462019707</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>[0.04837852423929334, 0.7083926965937444]</t>
+          <t>[0.7081264258665065, 1.2864364981729075]</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.02661215874917322</v>
+        <v>4.527083918848263e-07</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02661215874917322</v>
+        <v>4.527083918848263e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>-3.018947895341543</v>
+        <v>3.025237370123504</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[-4.226527053478161, -1.8113687372049259]</t>
+          <t>[2.685605731897581, 3.364869008349427]</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.751782293837103e-05</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="S29" t="n">
-        <v>3.751782293837103e-05</v>
+        <v>1.731947918415244e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>35.48788326207581</v>
+        <v>36.49220258582978</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>[35.29690385390378, 35.678862670247845]</t>
+          <t>[36.31683696608917, 36.66756820557039]</t>
         </is>
       </c>
       <c r="V29" t="n">
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>11.43543543543557</v>
+        <v>12.371851851852</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.86126126126134</v>
+        <v>11.08212212212226</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.0096096096098</v>
+        <v>13.66158158158175</v>
       </c>
     </row>
     <row r="30">
@@ -2973,69 +2973,69 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>2_induction_dd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.80000000000028</v>
+        <v>23.86000000000029</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5886974219246762</v>
+        <v>1.324906151456418e-08</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5886974219246762</v>
+        <v>1.324906151456418e-08</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.08073712979496506</v>
+        <v>0.8081619059624536</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>[-0.14225149364769862, 0.30372575323762874]</t>
+          <t>[0.6230454316083822, 0.993278380316525]</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.4598309606477238</v>
+        <v>1.022996243271734e-08</v>
       </c>
       <c r="O30" t="n">
-        <v>0.4598309606477238</v>
+        <v>1.022996243271734e-08</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.7295790747075399</v>
+        <v>3.100711067507043</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[-3.849158566560467, 2.3900004171453872]</t>
+          <t>[2.8239741771007347, 3.3774479579133514]</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>0.6317479807191335</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S30" t="n">
-        <v>0.6317479807191335</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T30" t="n">
-        <v>35.12149187470166</v>
+        <v>36.31244665827622</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>[35.00771024678139, 35.23527350262193]</t>
+          <t>[36.191544148128486, 36.433349168423945]</t>
         </is>
       </c>
       <c r="V30" t="n">
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>2.763563563563597</v>
+        <v>12.08524524524539</v>
       </c>
       <c r="Y30" t="n">
-        <v>-9.053053053053157</v>
+        <v>11.03435435435449</v>
       </c>
       <c r="Z30" t="n">
-        <v>14.58018018018035</v>
+        <v>13.1361361361363</v>
       </c>
     </row>
     <row r="31">
@@ -3063,65 +3063,65 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.000368595341554534</v>
+        <v>5.752060971531137e-06</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000368595341554534</v>
+        <v>5.752060971531137e-06</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.640163438917714</v>
+        <v>0.8277676817698705</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>[0.28897631958202297, 0.991350558253405]</t>
+          <t>[0.4909145416354299, 1.164620821904311]</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.001070081048232696</v>
+        <v>4.620949442157851e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>0.001070081048232696</v>
+        <v>4.620949442157851e-05</v>
       </c>
       <c r="P31" t="n">
-        <v>2.798816277972889</v>
+        <v>-2.742211004935235</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 3.4026058570411974]</t>
+          <t>[-3.1950531892364653, -2.289368820634004]</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.66810892771241e-09</v>
+        <v>2.975508728297882e-11</v>
       </c>
       <c r="S31" t="n">
-        <v>3.66810892771241e-09</v>
+        <v>2.975508728297882e-11</v>
       </c>
       <c r="T31" t="n">
-        <v>35.99275297753617</v>
+        <v>36.28512215135706</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>[35.79863460826779, 36.18687134680455]</t>
+          <t>[36.10369227522516, 36.46655202748896]</t>
         </is>
       </c>
       <c r="V31" t="n">
@@ -3131,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>13.19839839839855</v>
+        <v>10.39591591591604</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.91131131131144</v>
+        <v>8.679159159159264</v>
       </c>
       <c r="Z31" t="n">
-        <v>15.48548548548567</v>
+        <v>12.11267267267281</v>
       </c>
     </row>
     <row r="32">
@@ -3149,65 +3149,65 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002768529896554073</v>
+        <v>1.445379068210073e-05</v>
       </c>
       <c r="I32" t="n">
-        <v>0.002768529896554073</v>
+        <v>1.445379068210073e-05</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.3539628501809844</v>
+        <v>0.8594525159828379</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>[0.0955845957989041, 0.6123411045630647]</t>
+          <t>[0.5315466851713246, 1.1873583467943511]</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.009611756707204933</v>
+        <v>2.084513294331458e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>0.009611756707204933</v>
+        <v>2.084513294331458e-05</v>
       </c>
       <c r="P32" t="n">
-        <v>-2.301947770197927</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[-2.943474197958005, -1.6604213424378491]</t>
+          <t>[-3.484369029206698, -2.603842559732081]</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.467193349620089e-07</v>
+        <v>2.424505041176417e-12</v>
       </c>
       <c r="S32" t="n">
-        <v>2.467193349620089e-07</v>
+        <v>2.424505041176417e-12</v>
       </c>
       <c r="T32" t="n">
-        <v>35.37713064288627</v>
+        <v>36.49562942734489</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>[35.246334867345304, 35.50792641842724]</t>
+          <t>[36.2944872792023, 36.69677157548749]</t>
         </is>
       </c>
       <c r="V32" t="n">
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>8.719519519519624</v>
+        <v>11.54042042042056</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.289489489489565</v>
+        <v>9.871351351351468</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.14954954954968</v>
+        <v>13.20948948948965</v>
       </c>
     </row>
     <row r="33">
@@ -3235,65 +3235,65 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0004093839708737557</v>
+        <v>2.953581138220862e-06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0004093839708737557</v>
+        <v>2.953581138220862e-06</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>0.5466670043826518</v>
+        <v>1.100353768090226</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>[0.22167068978198046, 0.8716633189833232]</t>
+          <t>[0.669538619376933, 1.5311689168035194]</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.002142129757107369</v>
+        <v>2.882737044007655e-05</v>
       </c>
       <c r="O33" t="n">
-        <v>0.002142129757107369</v>
+        <v>2.882737044007655e-05</v>
       </c>
       <c r="P33" t="n">
-        <v>2.446605690183042</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[1.8805529598065034, 3.012658420559581]</t>
+          <t>[-3.107000542289004, -2.276789871070081]</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.211326905448118e-08</v>
+        <v>8.216982649855709e-12</v>
       </c>
       <c r="S33" t="n">
-        <v>1.211326905448118e-08</v>
+        <v>8.216982649855709e-12</v>
       </c>
       <c r="T33" t="n">
-        <v>35.85774790307752</v>
+        <v>36.51086246557</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>[35.6907481934077, 36.02474761274735]</t>
+          <t>[36.280836092893374, 36.740888838246626]</t>
         </is>
       </c>
       <c r="V33" t="n">
@@ -3303,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5325325325327</v>
+        <v>10.20516516516529</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.38838838838854</v>
+        <v>8.631471471471576</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.67667667667687</v>
+        <v>11.778858858859</v>
       </c>
     </row>
     <row r="34">
@@ -3321,65 +3321,65 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01490293396993847</v>
+        <v>2.188406649228369e-07</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01490293396993847</v>
+        <v>2.188406649228369e-07</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.4346925622307936</v>
+        <v>1.19296871936017</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>[0.05321897758400951, 0.8161661468775776]</t>
+          <t>[0.8503595916397195, 1.5355778470806207]</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.02745745491721374</v>
+        <v>3.915664870124402e-07</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02745745491721374</v>
+        <v>3.915664870124402e-07</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.31452671976185</v>
+        <v>-3.044105794469389</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[-3.056684744033313, -1.5723686954903862]</t>
+          <t>[-3.37115848313139, -2.717053105807389]</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.996594193309775e-06</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="S34" t="n">
-        <v>1.996594193309775e-06</v>
+        <v>7.327471962526033e-15</v>
       </c>
       <c r="T34" t="n">
-        <v>35.45619145094259</v>
+        <v>36.62591676477481</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>[35.25738348780997, 35.65499941407521]</t>
+          <t>[36.414665041914574, 36.837168487635054]</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>8.767167167167271</v>
+        <v>11.54042042042056</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.955955955956024</v>
+        <v>10.30054054054066</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.57837837837852</v>
+        <v>12.78030030030045</v>
       </c>
     </row>
     <row r="35">
@@ -3407,65 +3407,65 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02549548976767868</v>
+        <v>1.969694510073339e-05</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02549548976767868</v>
+        <v>1.969694510073339e-05</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>0.2354125653183203</v>
+        <v>0.8654200369452276</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>[0.027464969492491775, 0.4433601611441489]</t>
+          <t>[0.525864719984181, 1.2049753539062742]</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.02837025855890141</v>
+        <v>2.95987227094674e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>0.02837025855890141</v>
+        <v>2.95987227094674e-05</v>
       </c>
       <c r="P35" t="n">
-        <v>-2.880579450138389</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[-4.163632305658545, -1.5975265946182322]</t>
+          <t>[-3.4466321805149285, -2.5409478119124653]</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>0.0001314322542811386</v>
+        <v>5.701217276055104e-12</v>
       </c>
       <c r="S35" t="n">
-        <v>0.0001314322542811386</v>
+        <v>5.701217276055104e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>35.44222517033982</v>
+        <v>36.23830846320845</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>[35.3249646160136, 35.55948572466603]</t>
+          <t>[36.030979810414394, 36.445637116002516]</t>
         </is>
       </c>
       <c r="V35" t="n">
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>10.91131131131144</v>
+        <v>11.34966966966981</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.05125125125132</v>
+        <v>9.632912912913028</v>
       </c>
       <c r="Z35" t="n">
-        <v>15.77137137137156</v>
+        <v>13.06642642642658</v>
       </c>
     </row>
     <row r="36">
@@ -3493,65 +3493,65 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.84819073776066e-10</v>
+        <v>4.11024854390929e-05</v>
       </c>
       <c r="I36" t="n">
-        <v>4.84819073776066e-10</v>
+        <v>4.11024854390929e-05</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>0.5368727227793215</v>
+        <v>0.868488862531116</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>[0.4188430601505324, 0.6549023854081106]</t>
+          <t>[0.4550204295683038, 1.2819572954939282]</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>5.080819098779443e-09</v>
+        <v>0.0002693700010849565</v>
       </c>
       <c r="O36" t="n">
-        <v>5.080819098779443e-09</v>
+        <v>0.0002693700010849565</v>
       </c>
       <c r="P36" t="n">
-        <v>-2.855421551010543</v>
+        <v>-2.704474156243466</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[-3.094421592725081, -2.6164215092960044]</t>
+          <t>[-3.1950531892364666, -2.2138951232504653]</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.681792483054778e-10</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.681792483054778e-10</v>
       </c>
       <c r="T36" t="n">
-        <v>35.49290677752678</v>
+        <v>36.18437858110154</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>[35.42624210750412, 35.559571447549445]</t>
+          <t>[35.96454578985751, 36.40421137234557]</t>
         </is>
       </c>
       <c r="V36" t="n">
@@ -3561,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>10.81601601601614</v>
+        <v>10.25285285285298</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.910710710710831</v>
+        <v>8.393033033033134</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.72132132132146</v>
+        <v>12.11267267267282</v>
       </c>
     </row>
     <row r="37">
@@ -3575,69 +3575,69 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2_control_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.80000000000028</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0567989125105629</v>
+        <v>0.002955330082340057</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0567989125105629</v>
+        <v>0.002955330082340057</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
-        <v>0.2927923455141723</v>
+        <v>0.5907873587063257</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>[-0.02787657443026248, 0.6134612654586071]</t>
+          <t>[0.17079024189658298, 1.0107844755160684]</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.07141374761392294</v>
+        <v>0.008087552534805198</v>
       </c>
       <c r="O37" t="n">
-        <v>0.07141374761392294</v>
+        <v>0.008087552534805198</v>
       </c>
       <c r="P37" t="n">
-        <v>-2.301947770197927</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[-4.578737641268008, -0.02515789912784605]</t>
+          <t>[-3.207632138800389, -1.8491055858966954]</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>0.04773791924006932</v>
+        <v>1.390693533664944e-07</v>
       </c>
       <c r="S37" t="n">
-        <v>0.04773791924006932</v>
+        <v>1.390693533664944e-07</v>
       </c>
       <c r="T37" t="n">
-        <v>35.31875595232696</v>
+        <v>36.38708139608768</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>[35.151133616843794, 35.486378287810126]</t>
+          <t>[36.166626879699756, 36.607535912475605]</t>
         </is>
       </c>
       <c r="V37" t="n">
@@ -3647,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.719519519519624</v>
+        <v>9.585225225225342</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.0952952952952959</v>
+        <v>7.010090090090177</v>
       </c>
       <c r="Z37" t="n">
-        <v>17.34374374374395</v>
+        <v>12.16036036036051</v>
       </c>
     </row>
     <row r="38">
@@ -3665,65 +3665,65 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.607708288720033e-07</v>
+        <v>3.017934619098384e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>1.607708288720033e-07</v>
+        <v>3.017934619098384e-05</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.5433312939817156</v>
+        <v>0.7837251148183135</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>[0.35716308562732735, 0.7294995023361039]</t>
+          <t>[0.40701824049715185, 1.1604319891394752]</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>5.053035834867714e-06</v>
+        <v>0.0002975793914754554</v>
       </c>
       <c r="O38" t="n">
-        <v>5.053035834867714e-06</v>
+        <v>0.0002975793914754554</v>
       </c>
       <c r="P38" t="n">
-        <v>-2.415158316273234</v>
+        <v>-2.553526761476388</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[-2.7547899544991576, -2.0755266780473107]</t>
+          <t>[-3.031526844905466, -2.0755266780473107]</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>1.414646177977374e-12</v>
+        <v>2.977111890345441e-10</v>
       </c>
       <c r="S38" t="n">
-        <v>1.414646177977374e-12</v>
+        <v>2.977111890345441e-10</v>
       </c>
       <c r="T38" t="n">
-        <v>35.47914978476409</v>
+        <v>36.38078797169176</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>[35.3850874026495, 35.573212166878676]</t>
+          <t>[36.187181489252346, 36.57439445413117]</t>
         </is>
       </c>
       <c r="V38" t="n">
@@ -3733,13 +3733,13 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>9.217537537537655</v>
+        <v>9.680600600600718</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.921321321321424</v>
+        <v>7.868468468468564</v>
       </c>
       <c r="Z38" t="n">
-        <v>10.51375375375389</v>
+        <v>11.49273273273287</v>
       </c>
     </row>
     <row r="39">
@@ -3751,65 +3751,65 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>7.251415756748258e-08</v>
+        <v>1.646313635417229e-06</v>
       </c>
       <c r="I39" t="n">
-        <v>7.251415756748258e-08</v>
+        <v>1.646313635417229e-06</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.8111017318011982</v>
+        <v>0.9569490944670953</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>[0.5726084261604001, 1.0495950374419962]</t>
+          <t>[0.5817866796508113, 1.3321115092833793]</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5.59516719844666e-07</v>
+        <v>2.930200837036878e-05</v>
       </c>
       <c r="O39" t="n">
-        <v>5.59516719844666e-07</v>
+        <v>2.930200837036878e-05</v>
       </c>
       <c r="P39" t="n">
-        <v>-2.880579450138388</v>
+        <v>-2.239053022378311</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[-3.195053189236465, -2.566105711040312]</t>
+          <t>[-2.616421509296004, -1.861684535460618]</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>9.992007221626409e-15</v>
+        <v>4.348410520549351e-11</v>
       </c>
       <c r="S39" t="n">
-        <v>9.992007221626409e-15</v>
+        <v>4.348410520549351e-11</v>
       </c>
       <c r="T39" t="n">
-        <v>35.88664393932051</v>
+        <v>36.4063250049492</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>[35.7529715758393, 36.02031630280172]</t>
+          <t>[36.21433816593395, 36.59831184396444]</t>
         </is>
       </c>
       <c r="V39" t="n">
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>10.99383383383397</v>
+        <v>8.488408408408509</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.793633633633762</v>
+        <v>7.057777777777861</v>
       </c>
       <c r="Z39" t="n">
-        <v>12.19403403403419</v>
+        <v>9.919039039039157</v>
       </c>
     </row>
     <row r="40">
@@ -3837,65 +3837,65 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0004705148613638466</v>
+        <v>1.268802418685766e-08</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0004705148613638466</v>
+        <v>1.268802418685766e-08</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.3945961411522276</v>
+        <v>1.076925528921731</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>[0.15889699155820125, 0.630295290746254]</t>
+          <t>[0.7703769038326023, 1.3834741540108588]</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.002226934622428178</v>
+        <v>3.418729543902543e-07</v>
       </c>
       <c r="O40" t="n">
-        <v>0.002226934622428178</v>
+        <v>3.418729543902543e-07</v>
       </c>
       <c r="P40" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.339684618889696</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[-2.905737349266235, -1.7987897876410024]</t>
+          <t>[-2.6290004588599274, -2.050368778919464]</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>1.607613508980421e-08</v>
+        <v>1.161293283757914e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>1.607613508980421e-08</v>
+        <v>1.161293283757914e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>35.23803939327765</v>
+        <v>36.40180372767539</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>[35.115878527836756, 35.36020025871855]</t>
+          <t>[36.24152654566478, 36.56208090968599]</t>
         </is>
       </c>
       <c r="V40" t="n">
@@ -3905,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.977497497497612</v>
+        <v>8.869909909910016</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.865145145145233</v>
+        <v>7.773093093093183</v>
       </c>
       <c r="Z40" t="n">
-        <v>11.08984984984999</v>
+        <v>9.966726726726847</v>
       </c>
     </row>
     <row r="41">
@@ -3923,65 +3923,65 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>3.122165601421312e-05</v>
+        <v>1.784562946804957e-05</v>
       </c>
       <c r="I41" t="n">
-        <v>3.122165601421312e-05</v>
+        <v>1.784562946804957e-05</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.5620501815114594</v>
+        <v>0.9112155836346751</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>[0.30831392919645495, 0.8157864338264638]</t>
+          <t>[0.4920077784353296, 1.3304233888340207]</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.0001524929713287992</v>
+        <v>0.0001872863156924254</v>
       </c>
       <c r="O41" t="n">
-        <v>0.0001524929713287992</v>
+        <v>0.0001872863156924254</v>
       </c>
       <c r="P41" t="n">
-        <v>-2.742211004935235</v>
+        <v>-2.31452671976185</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[-3.2453689874921583, -2.239053022378311]</t>
+          <t>[-2.754789954499158, -1.874263485024541]</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.071947058368551e-10</v>
+        <v>3.975406670519988e-10</v>
       </c>
       <c r="S41" t="n">
-        <v>2.071947058368551e-10</v>
+        <v>3.975406670519988e-10</v>
       </c>
       <c r="T41" t="n">
-        <v>35.75559019582079</v>
+        <v>36.36057957474576</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>[35.61665307548074, 35.89452731616083]</t>
+          <t>[36.14471711276733, 36.57644203672418]</t>
         </is>
       </c>
       <c r="V41" t="n">
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>10.46574574574588</v>
+        <v>8.774534534534638</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.545425425425536</v>
+        <v>7.105465465465548</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.38606606606623</v>
+        <v>10.44360360360373</v>
       </c>
     </row>
     <row r="42">
@@ -4009,65 +4009,65 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1.818204603765139e-05</v>
+        <v>6.40907303384175e-06</v>
       </c>
       <c r="I42" t="n">
-        <v>1.818204603765139e-05</v>
+        <v>6.40907303384175e-06</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>0.4892189013067352</v>
+        <v>0.9191745886956859</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>[0.2832378474338917, 0.6951999551795787]</t>
+          <t>[0.5190538931694455, 1.3192952842219263]</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>6.919608366029451e-05</v>
+        <v>0.0001015553634755584</v>
       </c>
       <c r="O42" t="n">
-        <v>6.919608366029451e-05</v>
+        <v>0.0001015553634755584</v>
       </c>
       <c r="P42" t="n">
-        <v>-2.842842601446619</v>
+        <v>-2.276789871070081</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[-3.320842684875696, -2.3648425180175425]</t>
+          <t>[-2.6918952066795425, -1.8616845354606193]</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.161782030109862e-11</v>
+        <v>1.845110730869237e-10</v>
       </c>
       <c r="S42" t="n">
-        <v>4.161782030109862e-11</v>
+        <v>1.845110730869237e-10</v>
       </c>
       <c r="T42" t="n">
-        <v>35.64026393249775</v>
+        <v>36.21904924497683</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>[35.52411739691957, 35.756410468075934]</t>
+          <t>[36.01662857105674, 36.42146991889692]</t>
         </is>
       </c>
       <c r="V42" t="n">
@@ -4077,13 +4077,13 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>10.84980980980995</v>
+        <v>8.631471471471578</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.025505505505624</v>
+        <v>7.057777777777868</v>
       </c>
       <c r="Z42" t="n">
-        <v>12.67411411411427</v>
+        <v>10.20516516516529</v>
       </c>
     </row>
     <row r="43">
@@ -4091,69 +4091,69 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>4.468089985654178e-05</v>
+        <v>0.1432127377993268</v>
       </c>
       <c r="I43" t="n">
-        <v>4.468089985654178e-05</v>
+        <v>0.1432127377993268</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
-        <v>0.3609348031741924</v>
+        <v>0.3642351631549232</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>[0.2143035555072359, 0.5075660508411488]</t>
+          <t>[-0.128061656154987, 0.8565319824648334]</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.527873545034922e-05</v>
+        <v>0.1388245328063999</v>
       </c>
       <c r="O43" t="n">
-        <v>4.527873545034922e-05</v>
+        <v>0.1388245328063999</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.534631846798618</v>
+        <v>-2.251631971942235</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[-2.0000529806637726, -1.0692107129334634]</t>
+          <t>[-5.390079888141048, 0.8868159442565782]</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>8.879218509338926e-07</v>
+        <v>0.1505733882152289</v>
       </c>
       <c r="S43" t="n">
-        <v>8.879218509338926e-07</v>
+        <v>0.1505733882152289</v>
       </c>
       <c r="T43" t="n">
-        <v>35.14030422582741</v>
+        <v>36.58957732999374</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>[35.048680404256075, 35.23192804739874]</t>
+          <t>[36.33067546225871, 36.848479197728764]</t>
         </is>
       </c>
       <c r="V43" t="n">
@@ -4163,13 +4163,13 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.856976976977055</v>
+        <v>8.536096096096202</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.080680680680736</v>
+        <v>-3.361981981982021</v>
       </c>
       <c r="Z43" t="n">
-        <v>7.633273273273375</v>
+        <v>20.43417417417442</v>
       </c>
     </row>
     <row r="44">
@@ -4181,65 +4181,65 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.007689775191167647</v>
+        <v>2.082064449404619e-05</v>
       </c>
       <c r="I44" t="n">
-        <v>0.007689775191167647</v>
+        <v>2.082064449404619e-05</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>0.257868333033084</v>
+        <v>0.6943074119669852</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>[0.06559674444335073, 0.45013992162281724]</t>
+          <t>[0.36861238485003867, 1.0200024390839317]</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.01099470962480509</v>
+        <v>0.0002305930426922398</v>
       </c>
       <c r="O44" t="n">
-        <v>0.01099470962480509</v>
+        <v>0.0002305930426922398</v>
       </c>
       <c r="P44" t="n">
-        <v>-2.918316298830158</v>
+        <v>-2.339684618889696</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[-3.8491585665604675, -1.987474031099849]</t>
+          <t>[-2.779947853627004, -1.899421384152387]</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.8513203015047e-06</v>
+        <v>3.271574122720722e-10</v>
       </c>
       <c r="S44" t="n">
-        <v>1.8513203015047e-06</v>
+        <v>3.271574122720722e-10</v>
       </c>
       <c r="T44" t="n">
-        <v>35.11757589510479</v>
+        <v>36.32791325504584</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>[35.00993516150303, 35.225216628706555]</t>
+          <t>[36.161490798746556, 36.49433571134513]</t>
         </is>
       </c>
       <c r="V44" t="n">
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.137857857858</v>
+        <v>8.869909909910016</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.585265265265363</v>
+        <v>7.200840840840926</v>
       </c>
       <c r="Z44" t="n">
-        <v>14.69045045045064</v>
+        <v>10.53897897897911</v>
       </c>
     </row>
     <row r="45">
@@ -4267,65 +4267,65 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>6.46538129922547e-07</v>
+        <v>0.007153789950215539</v>
       </c>
       <c r="I45" t="n">
-        <v>6.46538129922547e-07</v>
+        <v>0.007153789950215539</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.7680927277749525</v>
+        <v>0.6541072177233076</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>[0.5098811989689729, 1.0263042565809322]</t>
+          <t>[0.16356368400038335, 1.1446507514462319]</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.885553537363862e-06</v>
+        <v>0.01139756708902739</v>
       </c>
       <c r="O45" t="n">
-        <v>3.885553537363862e-06</v>
+        <v>0.01139756708902739</v>
       </c>
       <c r="P45" t="n">
-        <v>2.811395227536812</v>
+        <v>-1.937158232844157</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[2.446605690183042, 3.176184764890582]</t>
+          <t>[-2.7799478536270037, -1.0943686120613094]</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.97761815204467e-13</v>
+        <v>0.0001009231866357929</v>
       </c>
       <c r="S45" t="n">
-        <v>2.97761815204467e-13</v>
+        <v>0.0001009231866357929</v>
       </c>
       <c r="T45" t="n">
-        <v>35.42140837823689</v>
+        <v>36.39116041832463</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>[35.276402312715675, 35.566414443758106]</t>
+          <t>[36.12095811556261, 36.661362721086654]</t>
         </is>
       </c>
       <c r="V45" t="n">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>13.25021021021038</v>
+        <v>7.343903903903993</v>
       </c>
       <c r="Y45" t="n">
-        <v>11.85797797797813</v>
+        <v>4.148828828828881</v>
       </c>
       <c r="Z45" t="n">
-        <v>14.64244244244263</v>
+        <v>10.5389789789791</v>
       </c>
     </row>
     <row r="46">
@@ -4353,65 +4353,65 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.004517333298466597</v>
+        <v>0.02124301188924793</v>
       </c>
       <c r="I46" t="n">
-        <v>0.004517333298466597</v>
+        <v>0.02124301188924793</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.6556290431272558</v>
+        <v>0.5915708312764174</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>[0.23244379501522516, 1.0788142912392864]</t>
+          <t>[0.052074974584019884, 1.131066687968815]</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.004090269890411724</v>
+        <v>0.03313608832166337</v>
       </c>
       <c r="O46" t="n">
-        <v>0.004090269890411724</v>
+        <v>0.03313608832166337</v>
       </c>
       <c r="P46" t="n">
-        <v>2.899447874484274</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[2.0566582537014266, 3.742237495267121]</t>
+          <t>[-3.107000542289006, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.702783551469025e-07</v>
+        <v>0.001576371072309124</v>
       </c>
       <c r="S46" t="n">
-        <v>4.702783551469025e-07</v>
+        <v>0.001576371072309124</v>
       </c>
       <c r="T46" t="n">
-        <v>35.57425850630655</v>
+        <v>36.39678831466667</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>[35.317678982010335, 35.83083803060276]</t>
+          <t>[36.11235234981156, 36.68122427952177]</t>
         </is>
       </c>
       <c r="V46" t="n">
@@ -4421,13 +4421,13 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>12.91415415415432</v>
+        <v>7.48696696696706</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.697617617617743</v>
+        <v>3.195075075075114</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.1306906906909</v>
+        <v>11.77885885885901</v>
       </c>
     </row>
     <row r="47">
@@ -4439,65 +4439,65 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0003270076300293523</v>
+        <v>8.369408815989132e-07</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0003270076300293523</v>
+        <v>8.369408815989132e-07</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.6267168451900247</v>
+        <v>1.027787812309466</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>[0.27374298388733465, 0.9796907064927147]</t>
+          <t>[0.6568162240399893, 1.3987594005789425]</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.00135221803133545</v>
+        <v>1.01727610943847e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.00135221803133545</v>
+        <v>1.01727610943847e-05</v>
       </c>
       <c r="P47" t="n">
-        <v>-2.654158357987773</v>
+        <v>-2.163579324994773</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[-3.245368987492159, -2.0629477284833877]</t>
+          <t>[-2.5409478119124653, -1.7862108380770803]</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>6.361283277911411e-09</v>
+        <v>8.197242884477873e-11</v>
       </c>
       <c r="S47" t="n">
-        <v>6.361283277911411e-09</v>
+        <v>8.197242884477873e-11</v>
       </c>
       <c r="T47" t="n">
-        <v>35.2218801120806</v>
+        <v>36.26734510284069</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>[35.034107025493114, 35.409653198668096]</t>
+          <t>[36.070279921903406, 36.46441028377798]</t>
         </is>
       </c>
       <c r="V47" t="n">
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>10.12968968968982</v>
+        <v>8.202282282282381</v>
       </c>
       <c r="Y47" t="n">
-        <v>7.873313313313416</v>
+        <v>6.771651651651735</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.38606606606623</v>
+        <v>9.632912912913028</v>
       </c>
     </row>
     <row r="48">
@@ -4525,65 +4525,65 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0003450174123711403</v>
+        <v>0.0005639838800584052</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0003450174123711403</v>
+        <v>0.0005639838800584052</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.9921468565609537</v>
+        <v>0.738887021921542</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>[0.4667998756012466, 1.5174938375206608]</t>
+          <t>[0.29849785669104634, 1.1792761871520376]</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.0007725930483899468</v>
+        <v>0.002187416154005195</v>
       </c>
       <c r="O48" t="n">
-        <v>0.0007725930483899468</v>
+        <v>0.002187416154005195</v>
       </c>
       <c r="P48" t="n">
-        <v>-2.704474156243465</v>
+        <v>-1.94973718240808</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[-3.308263735311774, -2.1006845771751563]</t>
+          <t>[-2.5535267614763884, -1.3459476033397708]</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>6.61330834539342e-09</v>
+        <v>1.206875404946572e-06</v>
       </c>
       <c r="S48" t="n">
-        <v>6.61330834539342e-09</v>
+        <v>1.206875404946572e-06</v>
       </c>
       <c r="T48" t="n">
-        <v>35.59016410875614</v>
+        <v>36.24261176504758</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>[35.29160607548388, 35.888722142028406]</t>
+          <t>[36.01079539566922, 36.474428134425935]</t>
         </is>
       </c>
       <c r="V48" t="n">
@@ -4593,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>10.32172172172185</v>
+        <v>7.391591591591681</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.017337337337439</v>
+        <v>5.102582582582643</v>
       </c>
       <c r="Z48" t="n">
-        <v>12.62610610610627</v>
+        <v>9.680600600600718</v>
       </c>
     </row>
     <row r="49">
@@ -4611,65 +4611,65 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.003664394047745989</v>
+        <v>6.52626296571146e-06</v>
       </c>
       <c r="I49" t="n">
-        <v>0.003664394047745989</v>
+        <v>6.52626296571146e-06</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.6331259203194399</v>
+        <v>1.017005967519481</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>[0.2030325955243626, 1.0632192451145173]</t>
+          <t>[0.6165929598618867, 1.4174189751770747]</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.005927542557260024</v>
+        <v>3.089174699022479e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>0.005927542557260024</v>
+        <v>3.089174699022479e-05</v>
       </c>
       <c r="P49" t="n">
-        <v>2.937184723176043</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[2.1195530015210418, 3.754816444831044]</t>
+          <t>[-2.415158316273234, -1.5346318467986189]</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.424204108564254e-07</v>
+        <v>6.450284528725092e-09</v>
       </c>
       <c r="S49" t="n">
-        <v>2.424204108564254e-07</v>
+        <v>6.450284528725092e-09</v>
       </c>
       <c r="T49" t="n">
-        <v>35.38175068944402</v>
+        <v>36.41384895302507</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>[35.14011795703436, 35.623383421853674]</t>
+          <t>[36.19032441201948, 36.637373494030655]</t>
         </is>
       </c>
       <c r="V49" t="n">
@@ -4679,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>12.7701301301303</v>
+        <v>7.48696696696706</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.649609609609735</v>
+        <v>5.817897897897973</v>
       </c>
       <c r="Z49" t="n">
-        <v>15.89065065065086</v>
+        <v>9.156036036036147</v>
       </c>
     </row>
     <row r="50">
@@ -4697,65 +4697,65 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>3_hypo_dd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>23.98000000000031</v>
+        <v>23.82000000000028</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.003715383716909493</v>
+        <v>9.166434463692141e-07</v>
       </c>
       <c r="I50" t="n">
-        <v>0.003715383716909493</v>
+        <v>9.166434463692141e-07</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>0.2233735938141699</v>
+        <v>0.8209865132251899</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>[0.06748445246086376, 0.379262735167476]</t>
+          <t>[0.5271476995906887, 1.114825326859691]</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.007142551132272246</v>
+        <v>9.097475074382189e-06</v>
       </c>
       <c r="O50" t="n">
-        <v>0.007142551132272246</v>
+        <v>9.097475074382189e-06</v>
       </c>
       <c r="P50" t="n">
-        <v>1.86797401024258</v>
+        <v>-2.603842559732081</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[1.1132370364071953, 2.6227109840779654]</t>
+          <t>[-2.9937899962136973, -2.2138951232504644]</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.2389135402221e-05</v>
+        <v>4.71600536400274e-12</v>
       </c>
       <c r="S50" t="n">
-        <v>4.2389135402221e-05</v>
+        <v>4.71600536400274e-12</v>
       </c>
       <c r="T50" t="n">
-        <v>34.90194111381211</v>
+        <v>36.75728529652214</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>[34.81656132860095, 34.98732089902328]</t>
+          <t>[36.59829469439006, 36.91627589865422]</t>
         </is>
       </c>
       <c r="V50" t="n">
@@ -4765,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>16.85081081081103</v>
+        <v>9.871351351351469</v>
       </c>
       <c r="Y50" t="n">
-        <v>13.97033033033051</v>
+        <v>8.393033033033131</v>
       </c>
       <c r="Z50" t="n">
-        <v>19.73129129129154</v>
+        <v>11.34966966966981</v>
       </c>
     </row>
     <row r="51">
@@ -4783,65 +4783,65 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>4.696243394164412e-14</v>
+        <v>0.01326159485689427</v>
       </c>
       <c r="I51" t="n">
-        <v>4.696243394164412e-14</v>
+        <v>0.01326159485689427</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.06246609086714</v>
+        <v>1.149123582560563</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>[0.9079267955594084, 1.217005386174872]</t>
+          <t>[0.26290969678744247, 2.035337468333683]</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.703393064962256e-12</v>
+        <v>0.01351238215844042</v>
       </c>
       <c r="O51" t="n">
-        <v>2.703393064962256e-12</v>
+        <v>0.01351238215844042</v>
       </c>
       <c r="P51" t="n">
-        <v>-2.553526761476388</v>
+        <v>1.742184514603349</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[-2.704474156243464, -2.4025793667093116]</t>
+          <t>[0.6981317007977319, 2.7862373284089665]</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>0.002287501984452822</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>0.002287501984452822</v>
       </c>
       <c r="T51" t="n">
-        <v>35.02808751444005</v>
+        <v>35.9278395002578</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>[34.946838609749086, 35.10933641913102]</t>
+          <t>[35.408164534124424, 36.44751446639117]</t>
         </is>
       </c>
       <c r="V51" t="n">
@@ -4851,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>9.745625625625749</v>
+        <v>17.54770770770796</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.169529529529649</v>
+        <v>13.51319319319339</v>
       </c>
       <c r="Z51" t="n">
-        <v>10.32172172172185</v>
+        <v>21.58222222222254</v>
       </c>
     </row>
     <row r="52">
@@ -4865,69 +4865,69 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.001741827425504883</v>
+        <v>0.1699223817700424</v>
       </c>
       <c r="I52" t="n">
-        <v>0.001741827425504883</v>
+        <v>0.1699223817700424</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>0.6645738381736912</v>
+        <v>0.5612798999476603</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>[0.2753488394188146, 1.0537988369285678]</t>
+          <t>[-0.22530430729078432, 1.3478641071861048]</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.001891384918305317</v>
+        <v>0.152679456957628</v>
       </c>
       <c r="O52" t="n">
-        <v>0.001891384918305317</v>
+        <v>0.152679456957628</v>
       </c>
       <c r="P52" t="n">
-        <v>-2.905737349266235</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[-3.6353164239737747, -2.176158274558695]</t>
+          <t>[-1.679289766783734, 4.081869133493045]</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.699286226816923e-08</v>
+        <v>0.3956003109278416</v>
       </c>
       <c r="S52" t="n">
-        <v>4.699286226816923e-08</v>
+        <v>0.3956003109278416</v>
       </c>
       <c r="T52" t="n">
-        <v>35.0137452092365</v>
+        <v>36.30516531094554</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>[34.780108359451546, 35.24738205902146]</t>
+          <t>[35.884675138888376, 36.725655483002704]</t>
         </is>
       </c>
       <c r="V52" t="n">
@@ -4937,13 +4937,13 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>11.08984984984999</v>
+        <v>19.63787787787817</v>
       </c>
       <c r="Y52" t="n">
-        <v>8.305385385385492</v>
+        <v>8.50650650650663</v>
       </c>
       <c r="Z52" t="n">
-        <v>13.8743143143145</v>
+        <v>30.7692492492497</v>
       </c>
     </row>
     <row r="53">
@@ -4951,69 +4951,69 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>2.432293289000853e-08</v>
+        <v>0.4348428784347909</v>
       </c>
       <c r="I53" t="n">
-        <v>2.432293289000853e-08</v>
+        <v>0.4348428784347909</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.4932837284504608</v>
+        <v>0.6039389640055219</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>[0.3626471405949374, 0.6239203163059841]</t>
+          <t>[-0.6614515534419816, 1.8693294814530255]</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1.108092813062456e-07</v>
+        <v>0.3322303312125747</v>
       </c>
       <c r="O53" t="n">
-        <v>1.108092813062456e-07</v>
+        <v>0.3322303312125747</v>
       </c>
       <c r="P53" t="n">
-        <v>-2.830263651882697</v>
+        <v>0.5975001042863477</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[-3.119579491852928, -2.5409478119124653]</t>
+          <t>[-2.5346583371305025, 3.729658545703198]</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0.6955814778080804</v>
       </c>
       <c r="S53" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>0.6955814778080804</v>
       </c>
       <c r="T53" t="n">
-        <v>35.09408599218339</v>
+        <v>36.62182865975026</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>[35.01785720957487, 35.17031477479192]</t>
+          <t>[35.95004204765105, 37.29361527184946]</t>
         </is>
       </c>
       <c r="V53" t="n">
@@ -5023,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>10.80180180180194</v>
+        <v>21.97109109109141</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.697617617617743</v>
+        <v>9.867547547547691</v>
       </c>
       <c r="Z53" t="n">
-        <v>11.90598598598614</v>
+        <v>34.07463463463513</v>
       </c>
     </row>
     <row r="54">
@@ -5041,65 +5041,65 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>6.899206694832571e-08</v>
+        <v>0.005692770021561544</v>
       </c>
       <c r="I54" t="n">
-        <v>6.899206694832571e-08</v>
+        <v>0.005692770021561544</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.6527813300192875</v>
+        <v>0.8701785263254536</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>[0.4554138241124903, 0.8501488359260847]</t>
+          <t>[0.2521212541629474, 1.4882357984879597]</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>8.484541738074114e-07</v>
+        <v>0.008038852519567374</v>
       </c>
       <c r="O54" t="n">
-        <v>8.484541738074114e-07</v>
+        <v>0.008038852519567374</v>
       </c>
       <c r="P54" t="n">
-        <v>-2.679316257115619</v>
+        <v>1.893131909370426</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[-3.00636894577762, -2.352263568453619]</t>
+          <t>[1.0126054398958093, 2.7736583788450417]</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>9.015010959956271e-14</v>
+        <v>0.0002106311830945007</v>
       </c>
       <c r="S54" t="n">
-        <v>9.015010959956271e-14</v>
+        <v>0.0002106311830945007</v>
       </c>
       <c r="T54" t="n">
-        <v>34.86308451482687</v>
+        <v>36.13559630441116</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>[34.75579996359505, 34.97036906605868]</t>
+          <t>[35.78371055483866, 36.487482053983655]</t>
         </is>
       </c>
       <c r="V54" t="n">
@@ -5109,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>10.22570570570584</v>
+        <v>16.96440440440465</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.977497497497616</v>
+        <v>13.561801801802</v>
       </c>
       <c r="Z54" t="n">
-        <v>11.47391391391406</v>
+        <v>20.36700700700731</v>
       </c>
     </row>
     <row r="55">
@@ -5127,65 +5127,65 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-08-02</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>2.437251327302992e-05</v>
+        <v>0.006306837672931942</v>
       </c>
       <c r="I55" t="n">
-        <v>2.437251327302992e-05</v>
+        <v>0.006306837672931942</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>0.9536610633598563</v>
+        <v>1.141028510119714</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>[0.55888524473216, 1.3484368819875527]</t>
+          <t>[0.26108523384042215, 2.0209717863990058]</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>5.667275661269677e-05</v>
+        <v>0.01350984757859131</v>
       </c>
       <c r="O55" t="n">
-        <v>5.667275661269677e-05</v>
+        <v>0.01350984757859131</v>
       </c>
       <c r="P55" t="n">
-        <v>-2.905737349266235</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[-3.3837374326953116, -2.427737265837158]</t>
+          <t>[1.8428161111147334, 3.3522900587855053]</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.768962836796618e-11</v>
+        <v>4.674539704208058e-07</v>
       </c>
       <c r="S55" t="n">
-        <v>2.768962836796618e-11</v>
+        <v>4.674539704208058e-07</v>
       </c>
       <c r="T55" t="n">
-        <v>35.47023730450003</v>
+        <v>36.36652184999502</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>[35.23922582778479, 35.70124878121527]</t>
+          <t>[35.90243172963661, 36.83061197035344]</t>
         </is>
       </c>
       <c r="V55" t="n">
@@ -5195,13 +5195,13 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>11.08984984984999</v>
+        <v>14.24232232232253</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.26554554554567</v>
+        <v>11.32580580580597</v>
       </c>
       <c r="Z55" t="n">
-        <v>12.91415415415432</v>
+        <v>17.15883883883909</v>
       </c>
     </row>
     <row r="56">
@@ -5213,65 +5213,65 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2022-08-01</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1.38519349213162e-07</v>
+        <v>0.002439170952101555</v>
       </c>
       <c r="I56" t="n">
-        <v>1.38519349213162e-07</v>
+        <v>0.002439170952101555</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.204556025664019</v>
+        <v>1.083310944507819</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>[0.8222939957802353, 1.586818055547802]</t>
+          <t>[0.33208434724538094, 1.8345375417702563]</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1.72079689098048e-06</v>
+        <v>0.006838683790448385</v>
       </c>
       <c r="O56" t="n">
-        <v>1.72079689098048e-06</v>
+        <v>0.006838683790448385</v>
       </c>
       <c r="P56" t="n">
-        <v>-2.792526803190927</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>[-3.1195794918529276, -2.4654741145289267]</t>
+          <t>[1.6792897667837337, 2.9371847231760433]</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.996802888650564e-14</v>
+        <v>1.736724735135198e-07</v>
       </c>
       <c r="S56" t="n">
-        <v>3.996802888650564e-14</v>
+        <v>1.736724735135198e-07</v>
       </c>
       <c r="T56" t="n">
-        <v>35.5936190739528</v>
+        <v>36.15812274469599</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>[35.38709519133948, 35.80014295656612]</t>
+          <t>[35.76209784850661, 36.55414764088536]</t>
         </is>
       </c>
       <c r="V56" t="n">
@@ -5281,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>10.65777777777792</v>
+        <v>15.36032032032054</v>
       </c>
       <c r="Y56" t="n">
-        <v>9.409569569569692</v>
+        <v>12.92988988989008</v>
       </c>
       <c r="Z56" t="n">
-        <v>11.90598598598614</v>
+        <v>17.79075075075101</v>
       </c>
     </row>
     <row r="57">
@@ -5299,65 +5299,65 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2022-08-02</t>
+          <t>2022-08-04</t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001176831817758406</v>
+        <v>6.953997105096921e-05</v>
       </c>
       <c r="I57" t="n">
-        <v>0.001176831817758406</v>
+        <v>6.953997105096921e-05</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
-        <v>1.00383556160396</v>
+        <v>1.615555605311133</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>[0.38251282847880574, 1.6251582947291148]</t>
+          <t>[0.8198147728971534, 2.411296437725113]</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.002963999899008307</v>
+        <v>0.000381991371963375</v>
       </c>
       <c r="O57" t="n">
-        <v>0.002963999899008307</v>
+        <v>0.000381991371963375</v>
       </c>
       <c r="P57" t="n">
-        <v>-2.603842559732081</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, -1.94973718240808]</t>
+          <t>[1.4528686746331179, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>4.737678960253788e-08</v>
+        <v>1.236465456688762e-07</v>
       </c>
       <c r="S57" t="n">
-        <v>4.737678960253788e-08</v>
+        <v>1.236465456688762e-07</v>
       </c>
       <c r="T57" t="n">
-        <v>35.39132644852027</v>
+        <v>35.95749743471225</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>[35.0521880464898, 35.730464850550746]</t>
+          <t>[35.530514963439536, 36.38447990598497]</t>
         </is>
       </c>
       <c r="V57" t="n">
@@ -5367,13 +5367,13 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>9.937657657657788</v>
+        <v>16.62414414414439</v>
       </c>
       <c r="Y57" t="n">
-        <v>7.44124124124134</v>
+        <v>14.5825825825828</v>
       </c>
       <c r="Z57" t="n">
-        <v>12.43407407407424</v>
+        <v>18.66570570570598</v>
       </c>
     </row>
     <row r="58">
@@ -5385,65 +5385,65 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2022-08-03</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0004041384305600859</v>
+        <v>0.005758325165487355</v>
       </c>
       <c r="I58" t="n">
-        <v>0.0004041384305600859</v>
+        <v>0.005758325165487355</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.497195750958781</v>
+        <v>0.6054626030675152</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>[0.198469484499757, 0.795922017417805]</t>
+          <t>[0.14731691893427268, 1.0636082872007577]</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.002336056056680968</v>
+        <v>0.01204405798277386</v>
       </c>
       <c r="O58" t="n">
-        <v>0.002336056056680968</v>
+        <v>0.01204405798277386</v>
       </c>
       <c r="P58" t="n">
-        <v>-2.377421467581465</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, -1.836526636332771]</t>
+          <t>[0.006289474781961957, 1.3899739268135018]</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>9.121568833592164e-09</v>
+        <v>0.04813207728514368</v>
       </c>
       <c r="S58" t="n">
-        <v>9.121568833592164e-09</v>
+        <v>0.04813207728514368</v>
       </c>
       <c r="T58" t="n">
-        <v>34.90422535656829</v>
+        <v>36.58054928010601</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>[34.752478357673326, 35.055972355463254]</t>
+          <t>[36.33732100869063, 36.823777551521395]</t>
         </is>
       </c>
       <c r="V58" t="n">
@@ -5453,13 +5453,13 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>9.073513513513628</v>
+        <v>21.58222222222254</v>
       </c>
       <c r="Y58" t="n">
-        <v>7.009169169169255</v>
+        <v>18.90874874874903</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.137857857858</v>
+        <v>24.25569569569605</v>
       </c>
     </row>
     <row r="59">
@@ -5467,69 +5467,69 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2022-08-04</t>
+          <t>2022-08-06</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1062757790243826</v>
+        <v>0.0002296853169804214</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1062757790243826</v>
+        <v>0.0002296853169804214</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.3575031439166665</v>
+        <v>1.219370309422178</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>[-0.09874475100141922, 0.8137510388347522]</t>
+          <t>[0.5291150189564569, 1.9096255998878995]</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.1181109096386981</v>
+        <v>0.001413542423703396</v>
       </c>
       <c r="O59" t="n">
-        <v>0.1181109096386981</v>
+        <v>0.001413542423703396</v>
       </c>
       <c r="P59" t="n">
-        <v>-2.490632013656773</v>
+        <v>1.000026490331886</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[-5.572474656817931, 0.5912106295043857]</t>
+          <t>[0.4465527095192705, 1.553500271144502]</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>0.1076428547408192</v>
+        <v>0.001158478021425102</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1076428547408192</v>
+        <v>0.001158478021425102</v>
       </c>
       <c r="T59" t="n">
-        <v>34.91418753549585</v>
+        <v>36.19687745927268</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>[34.67899591162477, 35.14937915936693]</t>
+          <t>[35.84267351867475, 36.55108139987062]</t>
         </is>
       </c>
       <c r="V59" t="n">
@@ -5539,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>9.505585585585708</v>
+        <v>20.41561561561591</v>
       </c>
       <c r="Y59" t="n">
-        <v>-2.256376376376405</v>
+        <v>18.27683683683711</v>
       </c>
       <c r="Z59" t="n">
-        <v>21.26754754754782</v>
+        <v>22.55439439439472</v>
       </c>
     </row>
     <row r="60">
@@ -5557,65 +5557,65 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3_induction_dd</t>
+          <t>4_hypo_dl</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2022-08-05</t>
+          <t>2022-08-07</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>23.98000000000031</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01205435631369156</v>
+        <v>8.193948616130875e-05</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01205435631369156</v>
+        <v>8.193948616130875e-05</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.4662213478857957</v>
+        <v>1.128004967776963</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>[0.06221786463492762, 0.8702248311366638]</t>
+          <t>[0.5436926330819887, 1.7123173024719378]</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.02575503469929163</v>
+        <v>0.0006273527971831783</v>
       </c>
       <c r="O60" t="n">
-        <v>0.02575503469929163</v>
+        <v>0.0006273527971831783</v>
       </c>
       <c r="P60" t="n">
-        <v>-2.327105669325773</v>
+        <v>0.8742369946926551</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[-3.056684744033312, -1.597526594618233]</t>
+          <t>[0.3836579616996545, 1.3648160276856558]</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.443715337945406e-06</v>
+        <v>0.001309376541629437</v>
       </c>
       <c r="S60" t="n">
-        <v>1.443715337945406e-06</v>
+        <v>0.001309376541629437</v>
       </c>
       <c r="T60" t="n">
-        <v>34.50974693879603</v>
+        <v>36.38166328390609</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>[34.30304169503757, 34.716452182554484]</t>
+          <t>[36.08151632698936, 36.68181024082283]</t>
         </is>
       </c>
       <c r="V60" t="n">
@@ -5625,2937 +5625,13 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>8.881481481481595</v>
+        <v>20.90170170170201</v>
       </c>
       <c r="Y60" t="n">
-        <v>6.097017017017095</v>
+        <v>19.00596596596625</v>
       </c>
       <c r="Z60" t="n">
-        <v>11.6659459459461</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2022-08-06</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1.869001995391528e-07</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1.869001995391528e-07</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1.153667486032099</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[0.7728804204906972, 1.5344545515735]</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>3.008621928479727e-06</v>
-      </c>
-      <c r="O61" t="n">
-        <v>3.008621928479727e-06</v>
-      </c>
-      <c r="P61" t="n">
-        <v>-2.339684618889696</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>[-2.6667373075516974, -2.0126319302276947]</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>1.260547222159403e-12</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.260547222159403e-12</v>
-      </c>
-      <c r="T61" t="n">
-        <v>35.22035326069509</v>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>[35.01876351660097, 35.42194300478921]</t>
-        </is>
-      </c>
-      <c r="V61" t="n">
-        <v>0</v>
-      </c>
-      <c r="W61" t="n">
-        <v>0</v>
-      </c>
-      <c r="X61" t="n">
-        <v>8.899699699699811</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>7.655655655655748</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>10.14374374374387</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2022-08-07</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1.482247136141979e-08</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.482247136141979e-08</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1.315488082743805</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[0.9340220080610884, 1.6969541574265214]</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>4.535945472561309e-07</v>
-      </c>
-      <c r="O62" t="n">
-        <v>4.535945472561309e-07</v>
-      </c>
-      <c r="P62" t="n">
-        <v>-2.226474072814388</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>[-2.5032109632206963, -1.9497371824080796]</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>1.285638262515931e-13</v>
-      </c>
-      <c r="S62" t="n">
-        <v>1.285638262515931e-13</v>
-      </c>
-      <c r="T62" t="n">
-        <v>35.30118795808409</v>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>[35.10379775793764, 35.49857815823054]</t>
-        </is>
-      </c>
-      <c r="V62" t="n">
-        <v>0</v>
-      </c>
-      <c r="W62" t="n">
-        <v>0</v>
-      </c>
-      <c r="X62" t="n">
-        <v>8.469069069069175</v>
-      </c>
-      <c r="Y62" t="n">
-        <v>7.416416416416508</v>
-      </c>
-      <c r="Z62" t="n">
-        <v>9.521721721721841</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2022-08-08</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.001949432202988599</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.001949432202988599</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>0.5521965911927857</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[0.18778113669782925, 0.9166120456877422]</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>0.00481825697876781</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.00481825697876781</v>
-      </c>
-      <c r="P63" t="n">
-        <v>-2.754789954499158</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[-3.484369029206697, -2.025210879791619]</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>1.108735263599669e-07</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1.108735263599669e-07</v>
-      </c>
-      <c r="T63" t="n">
-        <v>34.57749990264358</v>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[34.380662622675935, 34.77433718261123]</t>
-        </is>
-      </c>
-      <c r="V63" t="n">
-        <v>0</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0</v>
-      </c>
-      <c r="X63" t="n">
-        <v>10.47867867867881</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>7.703503503503602</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>13.25385385385402</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2022-08-09</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0009332250889083626</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.0009332250889083626</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0.7000626822314082</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[0.3277322237931557, 1.0723931406696607]</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>0.0008052311772102083</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.0008052311772102083</v>
-      </c>
-      <c r="P64" t="n">
-        <v>-3.119579491852928</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>[-3.811421717868699, -2.427737265837157]</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>5.901455324419658e-09</v>
-      </c>
-      <c r="S64" t="n">
-        <v>5.901455324419658e-09</v>
-      </c>
-      <c r="T64" t="n">
-        <v>35.63624729654434</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>[35.40452682233938, 35.8679677707493]</t>
-        </is>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>11.86626626626641</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>9.234634634634748</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>14.49789789789808</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2022-08-10</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.01601982961224846</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.01601982961224846</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>0.5540710436024909</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[0.06792883398025396, 1.040213253224728]</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>0.02743068178113184</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.02743068178113184</v>
-      </c>
-      <c r="P65" t="n">
-        <v>-2.654158357987773</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>[-3.7611059196130063, -1.5472107963625397]</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>6.190185559207251e-05</v>
-      </c>
-      <c r="S65" t="n">
-        <v>6.190185559207251e-05</v>
-      </c>
-      <c r="T65" t="n">
-        <v>34.79202613033613</v>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>[34.53575610262483, 35.04829615804742]</t>
-        </is>
-      </c>
-      <c r="V65" t="n">
-        <v>0</v>
-      </c>
-      <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="n">
-        <v>10.09589589589602</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>5.885285285285354</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>14.30650650650669</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6.530988833386431e-05</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.530988833386431e-05</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0.9147057442813278</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[0.46979029786979964, 1.359621190692856]</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>0.0003362289426476206</v>
-      </c>
-      <c r="O66" t="n">
-        <v>0.0003362289426476206</v>
-      </c>
-      <c r="P66" t="n">
-        <v>-1.94973718240808</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>[-2.4528951649650033, -1.446579199851156]</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>7.32589249263782e-08</v>
-      </c>
-      <c r="S66" t="n">
-        <v>7.32589249263782e-08</v>
-      </c>
-      <c r="T66" t="n">
-        <v>35.08292076296318</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>[34.844111822133996, 35.32172970379236]</t>
-        </is>
-      </c>
-      <c r="V66" t="n">
-        <v>0</v>
-      </c>
-      <c r="W66" t="n">
-        <v>0</v>
-      </c>
-      <c r="X66" t="n">
-        <v>7.416416416416507</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>5.502502502502569</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>9.330330330330444</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022-08-12</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.001221806376318968</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.001221806376318968</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0.7139532694643869</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[0.28681749384857014, 1.1410890450802036]</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>0.002256167699599354</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.002256167699599354</v>
-      </c>
-      <c r="P67" t="n">
-        <v>-2.930895248394081</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>[-3.6353164239737743, -2.2264740728143884]</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>2.290243061864317e-08</v>
-      </c>
-      <c r="S67" t="n">
-        <v>2.290243061864317e-08</v>
-      </c>
-      <c r="T67" t="n">
-        <v>35.13651295163694</v>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>[34.89382013378239, 35.3792057694915]</t>
-        </is>
-      </c>
-      <c r="V67" t="n">
-        <v>0</v>
-      </c>
-      <c r="W67" t="n">
-        <v>0</v>
-      </c>
-      <c r="X67" t="n">
-        <v>11.14854854854869</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>8.469069069069178</v>
-      </c>
-      <c r="Z67" t="n">
-        <v>13.8280280280282</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.0006215601385330949</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.0006215601385330949</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1.046585155925065</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[0.3987793813844114, 1.694390930465719]</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>0.002964836781061742</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.002964836781061742</v>
-      </c>
-      <c r="P68" t="n">
-        <v>-2.327105669325773</v>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>[-2.8805794501383892, -1.773631888513156]</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>1.923922376967369e-08</v>
-      </c>
-      <c r="S68" t="n">
-        <v>1.923922376967369e-08</v>
-      </c>
-      <c r="T68" t="n">
-        <v>35.32072073868886</v>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>[34.98819062702427, 35.65325085035346]</t>
-        </is>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="n">
-        <v>0</v>
-      </c>
-      <c r="X68" t="n">
-        <v>8.851851851851963</v>
-      </c>
-      <c r="Y68" t="n">
-        <v>6.74654654654663</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>10.9571571571573</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>1</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-08-14</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>7.15154335306778e-07</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7.15154335306778e-07</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>0.8178969714342301</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[0.5238679186505983, 1.111926024217862]</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>9.646325156431601e-06</v>
-      </c>
-      <c r="O69" t="n">
-        <v>9.646325156431601e-06</v>
-      </c>
-      <c r="P69" t="n">
-        <v>-2.151000375430849</v>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>[-2.5032109632206963, -1.7987897876410015]</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>2.539723986672016e-11</v>
-      </c>
-      <c r="S69" t="n">
-        <v>2.539723986672016e-11</v>
-      </c>
-      <c r="T69" t="n">
-        <v>35.22622063137331</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>[35.070785900880196, 35.38165536186642]</t>
-        </is>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0</v>
-      </c>
-      <c r="X69" t="n">
-        <v>8.181981981982082</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>6.842242242242323</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>9.521721721721841</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2022-08-15</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.04245954131064766</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.04245954131064766</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>0.4579041840501432</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[-0.00702793192976614, 0.9228363000300526]</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>0.05325048672891719</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0.05325048672891719</v>
-      </c>
-      <c r="P70" t="n">
-        <v>-2.163579324994773</v>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>[-3.89947436481616, -0.4276842851733855]</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>0.01701195441120418</v>
-      </c>
-      <c r="S70" t="n">
-        <v>0.01701195441120418</v>
-      </c>
-      <c r="T70" t="n">
-        <v>35.32194750387414</v>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>[35.0742788479766, 35.56961615977167]</t>
-        </is>
-      </c>
-      <c r="V70" t="n">
-        <v>0</v>
-      </c>
-      <c r="W70" t="n">
-        <v>0</v>
-      </c>
-      <c r="X70" t="n">
-        <v>8.229829829829935</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1.62682682682685</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>14.83283283283302</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>1</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1.810630445309158e-05</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1.810630445309158e-05</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>0.9825518770152684</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[0.5915997409386655, 1.3735040130918712]</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.517422248089375e-05</v>
-      </c>
-      <c r="O71" t="n">
-        <v>3.517422248089375e-05</v>
-      </c>
-      <c r="P71" t="n">
-        <v>-1.836526636332772</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>[-2.3145267197618495, -1.3585265529036952]</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>8.400434992061889e-08</v>
-      </c>
-      <c r="S71" t="n">
-        <v>8.400434992061889e-08</v>
-      </c>
-      <c r="T71" t="n">
-        <v>35.51778769656282</v>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>[35.2852067097684, 35.75036868335724]</t>
-        </is>
-      </c>
-      <c r="V71" t="n">
-        <v>0</v>
-      </c>
-      <c r="W71" t="n">
-        <v>0</v>
-      </c>
-      <c r="X71" t="n">
-        <v>6.985785785785875</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>5.167567567567636</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>8.804004004004115</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2022-08-17</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.003695883343339035</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.003695883343339035</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>0.6968345735869725</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[0.18660680851799683, 1.2070623386559483]</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>0.009803105842416837</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.009803105842416837</v>
-      </c>
-      <c r="P72" t="n">
-        <v>-2.629000458859927</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>[-3.358579533567466, -1.899421384152388]</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>2.31050410137712e-07</v>
-      </c>
-      <c r="S72" t="n">
-        <v>2.31050410137712e-07</v>
-      </c>
-      <c r="T72" t="n">
-        <v>35.21651257610371</v>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>[34.94997108284363, 35.48305406936379]</t>
-        </is>
-      </c>
-      <c r="V72" t="n">
-        <v>0</v>
-      </c>
-      <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="n">
-        <v>10.00020020020032</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>7.225025025025116</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>12.77537537537553</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2022-08-18</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.4699916871637821</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.4699916871637821</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>0.2425759101970435</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[-0.273952512281852, 0.759104332675939]</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>0.3398629147092342</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.3398629147092342</v>
-      </c>
-      <c r="P73" t="n">
-        <v>-1.685579241565695</v>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>[-4.817737682982545, 1.446579199851155]</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>0.275714542886587</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0.275714542886587</v>
-      </c>
-      <c r="T73" t="n">
-        <v>35.83738143539615</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>[35.55318300432772, 36.121579866464586]</t>
-        </is>
-      </c>
-      <c r="V73" t="n">
-        <v>0</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0</v>
-      </c>
-      <c r="X73" t="n">
-        <v>6.41161161161169</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>-5.502502502502569</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>18.32572572572595</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2022-08-19</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.01012714900142664</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.01012714900142664</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>0.639095617697361</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[0.09908952900401502, 1.179101706390707]</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>0.02258900028468891</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.02258900028468891</v>
-      </c>
-      <c r="P74" t="n">
-        <v>-2.176158274558696</v>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>[-2.956053147521928, -1.3962634015954638]</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>9.258070595707935e-06</v>
-      </c>
-      <c r="S74" t="n">
-        <v>9.258070595707935e-06</v>
-      </c>
-      <c r="T74" t="n">
-        <v>35.52384269139085</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>[35.24722055484817, 35.80046482793354]</t>
-        </is>
-      </c>
-      <c r="V74" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="n">
-        <v>8.277677677677783</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>5.311111111111179</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>11.24424424424439</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2022-08-20</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1.639440817091664e-05</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.639440817091664e-05</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>0.7753373774378929</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[0.42659805165780185, 1.124076703217984]</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>0.0001464479968484866</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.0001464479968484866</v>
-      </c>
-      <c r="P75" t="n">
-        <v>-2.138421425866927</v>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>[-2.603842559732081, -1.6730002920017726]</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>4.273440712410093e-09</v>
-      </c>
-      <c r="S75" t="n">
-        <v>4.273440712410093e-09</v>
-      </c>
-      <c r="T75" t="n">
-        <v>35.48136961738476</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>[35.299026655802, 35.66371257896753]</t>
-        </is>
-      </c>
-      <c r="V75" t="n">
-        <v>0</v>
-      </c>
-      <c r="W75" t="n">
-        <v>0</v>
-      </c>
-      <c r="X75" t="n">
-        <v>8.134134134134237</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>6.363763763763846</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>9.904504504504629</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2022-08-21</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>3.405492659203091e-06</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.405492659203091e-06</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>0.8285733871794179</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[0.5086492742831865, 1.1484975000756492]</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>2.423303540766142e-05</v>
-      </c>
-      <c r="O76" t="n">
-        <v>2.423303540766142e-05</v>
-      </c>
-      <c r="P76" t="n">
-        <v>-2.088105627611234</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>[-2.5032109632206963, -1.6730002920017712]</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>8.74803340877861e-10</v>
-      </c>
-      <c r="S76" t="n">
-        <v>8.74803340877861e-10</v>
-      </c>
-      <c r="T76" t="n">
-        <v>35.55412656958976</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>[35.37976996137579, 35.72848317780373]</t>
-        </is>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>7.942742742742841</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>6.36376376376384</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>9.521721721721841</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2022-08-22</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G77" t="n">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.003865547628376542</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.003865547628376542</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>0.6337280113220167</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[0.19112558327058338, 1.07633043937345]</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>0.007179171530889095</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.007179171530889095</v>
-      </c>
-      <c r="P77" t="n">
-        <v>-2.679316257115619</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>[-3.4340532309510055, -1.9245792832802335]</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>2.911267062977174e-07</v>
-      </c>
-      <c r="S77" t="n">
-        <v>2.911267062977174e-07</v>
-      </c>
-      <c r="T77" t="n">
-        <v>35.53755811827182</v>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>[35.29374497527922, 35.78137126126442]</t>
-        </is>
-      </c>
-      <c r="V77" t="n">
-        <v>0</v>
-      </c>
-      <c r="W77" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" t="n">
-        <v>10.19159159159172</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>7.320720720720812</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>13.06246246246263</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2022-08-23</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>4.716971147011861e-09</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.716971147011861e-09</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1.183173317464384</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[0.869725092171489, 1.4966215427572784]</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>1.114166945370698e-07</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1.114166945370698e-07</v>
-      </c>
-      <c r="P78" t="n">
-        <v>-2.037789829355542</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>[-2.3145267197618495, -1.7610529389492338]</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>7.214229214014267e-13</v>
-      </c>
-      <c r="S78" t="n">
-        <v>7.214229214014267e-13</v>
-      </c>
-      <c r="T78" t="n">
-        <v>35.91148313573156</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>[35.74527447109888, 36.077691800364235]</t>
-        </is>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>7.751351351351449</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>6.698698698698784</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>8.804004004004113</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2022-08-24</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.0003093815649604092</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.0003093815649604092</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>0.8648839625043152</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[0.38645962483442275, 1.3433083001742077]</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>0.001153002289687066</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.001153002289687066</v>
-      </c>
-      <c r="P79" t="n">
-        <v>-2.050368778919465</v>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>[-2.64157940842385, -1.4591581494150794]</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>4.162121221007453e-07</v>
-      </c>
-      <c r="S79" t="n">
-        <v>4.162121221007453e-07</v>
-      </c>
-      <c r="T79" t="n">
-        <v>35.49620805428373</v>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>[35.23871315894948, 35.753702949617974]</t>
-        </is>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>7.799199199199297</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>5.550350350350421</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>10.04804804804817</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>4_hypo_dd</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022-08-25</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>23.9000000000003</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3.308755784137141e-06</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.308755784137141e-06</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>0.8332967443461499</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[0.5454578149748031, 1.1211356737174967]</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>5.642491388124782e-06</v>
-      </c>
-      <c r="O80" t="n">
-        <v>5.642491388124782e-06</v>
-      </c>
-      <c r="P80" t="n">
-        <v>-1.660421342437848</v>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[-2.0755266780473107, -1.2453160068283857]</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>4.379730134118631e-08</v>
-      </c>
-      <c r="S80" t="n">
-        <v>4.379730134118631e-08</v>
-      </c>
-      <c r="T80" t="n">
-        <v>35.55518397337085</v>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>[35.38024738117195, 35.730120565569756]</t>
-        </is>
-      </c>
-      <c r="V80" t="n">
-        <v>0</v>
-      </c>
-      <c r="W80" t="n">
-        <v>0</v>
-      </c>
-      <c r="X80" t="n">
-        <v>6.315915915915994</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>4.736936936936994</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>7.894894894894994</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022-08-26</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1.371161931773557e-07</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1.371161931773557e-07</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1.005433160115025</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[0.6868295264014712, 1.3240367938285793]</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>1.684854789019141e-06</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.684854789019141e-06</v>
-      </c>
-      <c r="P81" t="n">
-        <v>-1.98747403109985</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[-2.339684618889696, -1.635263443310003]</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>1.098043878045019e-10</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.098043878045019e-10</v>
-      </c>
-      <c r="T81" t="n">
-        <v>35.69142050471093</v>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>[35.51870728391338, 35.86413372550849]</t>
-        </is>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
-      </c>
-      <c r="W81" t="n">
-        <v>0</v>
-      </c>
-      <c r="X81" t="n">
-        <v>7.711791791791914</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>6.345145145145247</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>9.07843843843858</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022-08-27</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G82" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1.763705407387128e-06</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1.763705407387128e-06</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>0.5746807625954808</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[0.39458705715463793, 0.7547744680363238]</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>1.434853237780587e-06</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1.434853237780587e-06</v>
-      </c>
-      <c r="P82" t="n">
-        <v>-3.044105794469389</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>[-3.421474281387083, -2.666737307551696]</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>1.221245327087672e-13</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1.221245327087672e-13</v>
-      </c>
-      <c r="T82" t="n">
-        <v>35.46108668054917</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>[35.346172492432736, 35.57600086866561]</t>
-        </is>
-      </c>
-      <c r="V82" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="n">
-        <v>11.81173173173191</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>10.34746746746762</v>
-      </c>
-      <c r="Z82" t="n">
-        <v>13.2759959959962</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.001144944257037706</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.001144944257037706</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>0.5745300555813344</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[0.19326463792177861, 0.9557954732408902]</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>0.005016537207846783</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.005016537207846783</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2.320816194543811</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>[1.742184514603348, 2.8994478744842733]</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.189899871498426e-08</v>
-      </c>
-      <c r="S83" t="n">
-        <v>4.189899871498426e-08</v>
-      </c>
-      <c r="T83" t="n">
-        <v>35.6337833684882</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>[35.43947163677679, 35.82809510019962]</t>
-        </is>
-      </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X83" t="n">
-        <v>15.37477477477501</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>13.12956956956977</v>
-      </c>
-      <c r="Z83" t="n">
-        <v>17.61997997998025</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022-08-29</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G84" t="n">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.001357140812959345</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.001357140812959345</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>0.4311982014119451</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[0.15803655247847104, 0.7043598503454191]</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
-        <v>0.003549762047348803</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.003549762047348803</v>
-      </c>
-      <c r="P84" t="n">
-        <v>2.798816277972889</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>[2.1069740519571187, 3.4906585039886586]</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.640558765560797e-08</v>
-      </c>
-      <c r="S84" t="n">
-        <v>3.640558765560797e-08</v>
-      </c>
-      <c r="T84" t="n">
-        <v>35.23718508382517</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>[35.0898836566964, 35.38448651095395]</t>
-        </is>
-      </c>
-      <c r="V84" t="n">
-        <v>0</v>
-      </c>
-      <c r="W84" t="n">
-        <v>0</v>
-      </c>
-      <c r="X84" t="n">
-        <v>13.52004004004025</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>10.83555555555572</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>16.20452452452477</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022-08-30</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1</v>
-      </c>
-      <c r="H85" t="n">
-        <v>3.048900953928069e-08</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.048900953928069e-08</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1.17131006647616</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[0.8305482141496938, 1.5120719188026257]</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
-        <v>4.764724066408377e-07</v>
-      </c>
-      <c r="O85" t="n">
-        <v>4.764724066408377e-07</v>
-      </c>
-      <c r="P85" t="n">
-        <v>1.981184556317887</v>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>[1.6792897667837323, 2.283079345852041]</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>6.558309451065725e-12</v>
-      </c>
-      <c r="S85" t="n">
-        <v>6.558309451065725e-12</v>
-      </c>
-      <c r="T85" t="n">
-        <v>35.71590877281275</v>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>[35.531173475665966, 35.90064406995954]</t>
-        </is>
-      </c>
-      <c r="V85" t="n">
-        <v>0</v>
-      </c>
-      <c r="W85" t="n">
-        <v>0</v>
-      </c>
-      <c r="X85" t="n">
-        <v>16.69261261261287</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>15.52120120120144</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>17.8640240240243</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.0001304724929094281</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.0001304724929094281</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1.062635896055674</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[0.5224055533481895, 1.6028662387631591]</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.0005231986552369783</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.0005231986552369783</v>
-      </c>
-      <c r="P86" t="n">
-        <v>1.893131909370426</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>[1.3270791789938867, 2.4591846397469643]</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>7.191326480970872e-07</v>
-      </c>
-      <c r="S86" t="n">
-        <v>7.191326480970872e-07</v>
-      </c>
-      <c r="T86" t="n">
-        <v>35.67039817782391</v>
-      </c>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>[35.374380737325225, 35.966415618322586]</t>
-        </is>
-      </c>
-      <c r="V86" t="n">
-        <v>0</v>
-      </c>
-      <c r="W86" t="n">
-        <v>0</v>
-      </c>
-      <c r="X86" t="n">
-        <v>17.03427427427454</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>14.83787787787811</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>19.23067067067096</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2022-09-01</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1.28179557357111e-06</v>
-      </c>
-      <c r="I87" t="n">
-        <v>1.28179557357111e-06</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1.211999177077676</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[0.7578086369984298, 1.6661897171569215]</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>1.658265107051804e-05</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.658265107051804e-05</v>
-      </c>
-      <c r="P87" t="n">
-        <v>1.968605606753965</v>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>[1.578658170272349, 2.35855304323558]</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>8.207488022549114e-10</v>
-      </c>
-      <c r="S87" t="n">
-        <v>8.207488022549114e-10</v>
-      </c>
-      <c r="T87" t="n">
-        <v>35.33255237365802</v>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>[35.09177263025864, 35.5733321170574]</t>
-        </is>
-      </c>
-      <c r="V87" t="n">
-        <v>0</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0</v>
-      </c>
-      <c r="X87" t="n">
-        <v>16.74142142142168</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>15.22834834834858</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>18.25449449449477</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2022-09-02</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G88" t="n">
-        <v>1</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1.760491752378357e-09</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.760491752378357e-09</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0.874540092939899</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[0.674534007049953, 1.074546178829845]</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>9.961207192432653e-09</v>
-      </c>
-      <c r="O88" t="n">
-        <v>9.961207192432653e-09</v>
-      </c>
-      <c r="P88" t="n">
-        <v>1.79250031285904</v>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>[1.5409213215805782, 2.0440793041375027]</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>1.362465695819992e-12</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.362465695819992e-12</v>
-      </c>
-      <c r="T88" t="n">
-        <v>35.58537819520284</v>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>[35.46816953167429, 35.70258685873138]</t>
-        </is>
-      </c>
-      <c r="V88" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" t="n">
-        <v>0</v>
-      </c>
-      <c r="X88" t="n">
-        <v>17.42474474474501</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>16.44856856856882</v>
-      </c>
-      <c r="Z88" t="n">
-        <v>18.40092092092121</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>1</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>2022-09-03</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4.515351180733873e-07</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4.515351180733873e-07</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>0.6064262293505003</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[0.3897998025736982, 0.8230526561273024]</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>8.866669897411583e-06</v>
-      </c>
-      <c r="O89" t="n">
-        <v>8.866669897411583e-06</v>
-      </c>
-      <c r="P89" t="n">
-        <v>2.270500396288118</v>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>[1.9182898084982707, 2.6227109840779654]</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>9.193978911525846e-12</v>
-      </c>
-      <c r="S89" t="n">
-        <v>9.193978911525846e-12</v>
-      </c>
-      <c r="T89" t="n">
-        <v>35.48187243980729</v>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>[35.36943879800175, 35.59430608161283]</t>
-        </is>
-      </c>
-      <c r="V89" t="n">
-        <v>0</v>
-      </c>
-      <c r="W89" t="n">
-        <v>0</v>
-      </c>
-      <c r="X89" t="n">
-        <v>15.57001001001025</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>14.20336336336358</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>16.93665665665692</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2022-09-04</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>3.558597860831014e-12</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.558597860831014e-12</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1.063555474459495</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[0.8741364929476525, 1.2529744559713372]</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>1.202971056102342e-10</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.202971056102342e-10</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2.106974051957119</v>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>[1.9182898084982725, 2.295658295415965]</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="S90" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="T90" t="n">
-        <v>35.77309675117198</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>[35.67106386124483, 35.87512964109912]</t>
-        </is>
-      </c>
-      <c r="V90" t="n">
-        <v>0</v>
-      </c>
-      <c r="W90" t="n">
-        <v>0</v>
-      </c>
-      <c r="X90" t="n">
-        <v>16.20452452452477</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>15.47239239239263</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>16.93665665665691</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2022-09-05</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G91" t="n">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1.745396466246163e-07</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.745396466246163e-07</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>0.8545875423033884</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[0.5715506610873575, 1.1376244235194193]</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>3.156391883640808e-06</v>
-      </c>
-      <c r="O91" t="n">
-        <v>3.156391883640808e-06</v>
-      </c>
-      <c r="P91" t="n">
-        <v>2.094395102393195</v>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>[1.7547634641672705, 2.434026740619119]</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>2.118327735445291e-11</v>
-      </c>
-      <c r="S91" t="n">
-        <v>2.118327735445291e-11</v>
-      </c>
-      <c r="T91" t="n">
-        <v>35.51787439412475</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>[35.368242653725716, 35.66750613452378]</t>
-        </is>
-      </c>
-      <c r="V91" t="n">
-        <v>0</v>
-      </c>
-      <c r="W91" t="n">
-        <v>0</v>
-      </c>
-      <c r="X91" t="n">
-        <v>16.25333333333358</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>14.93549549549572</v>
-      </c>
-      <c r="Z91" t="n">
-        <v>17.57117117117144</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>1</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G92" t="n">
-        <v>1</v>
-      </c>
-      <c r="H92" t="n">
-        <v>6.515847882249126e-06</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.515847882249126e-06</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>0.5519123248555857</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[0.3147383267268644, 0.789086322984307]</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>8.766709753338375e-05</v>
-      </c>
-      <c r="O92" t="n">
-        <v>8.766709753338375e-05</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2.345974093671657</v>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>[1.9308687580621942, 2.761079429281119]</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>1.0675926809256e-10</v>
-      </c>
-      <c r="S92" t="n">
-        <v>1.0675926809256e-10</v>
-      </c>
-      <c r="T92" t="n">
-        <v>35.29503512361812</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>[35.17298732648739, 35.417082920748854]</t>
-        </is>
-      </c>
-      <c r="V92" t="n">
-        <v>0</v>
-      </c>
-      <c r="W92" t="n">
-        <v>0</v>
-      </c>
-      <c r="X92" t="n">
-        <v>15.27715715715739</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>13.66646646646668</v>
-      </c>
-      <c r="Z92" t="n">
-        <v>16.88784784784811</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2022-09-07</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1.303323546419932e-06</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1.303323546419932e-06</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>0.802004077354411</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[0.5100001099323137, 1.0940080447765084]</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>1.140554621947842e-05</v>
-      </c>
-      <c r="O93" t="n">
-        <v>1.140554621947842e-05</v>
-      </c>
-      <c r="P93" t="n">
-        <v>2.056658253701427</v>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>[1.654131867655888, 2.459184639746965]</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>6.626732496073373e-10</v>
-      </c>
-      <c r="S93" t="n">
-        <v>6.626732496073373e-10</v>
-      </c>
-      <c r="T93" t="n">
-        <v>35.4689299710054</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>[35.309459096940344, 35.62840084507046]</t>
-        </is>
-      </c>
-      <c r="V93" t="n">
-        <v>0</v>
-      </c>
-      <c r="W93" t="n">
-        <v>0</v>
-      </c>
-      <c r="X93" t="n">
-        <v>16.39975975976001</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>14.83787787787811</v>
-      </c>
-      <c r="Z93" t="n">
-        <v>17.96164164164191</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>5_hypo_dl</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2022-09-08</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>24.38000000000037</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3.016398242294827e-11</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.016398242294827e-11</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0.7137722739816112</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[0.597189722175397, 0.8303548257878255]</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>6.448415135196228e-09</v>
-      </c>
-      <c r="O94" t="n">
-        <v>6.448415135196228e-09</v>
-      </c>
-      <c r="P94" t="n">
-        <v>2.19502669890458</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>[2.0315003545735797, 2.35855304323558]</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>3.357314426466473e-13</v>
-      </c>
-      <c r="S94" t="n">
-        <v>3.357314426466473e-13</v>
-      </c>
-      <c r="T94" t="n">
-        <v>35.55199096538513</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>[35.48824026073292, 35.61574167003734]</t>
-        </is>
-      </c>
-      <c r="V94" t="n">
-        <v>0</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0</v>
-      </c>
-      <c r="X94" t="n">
-        <v>15.86286286286311</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>15.22834834834858</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>16.49737737737763</v>
+        <v>22.79743743743777</v>
       </c>
     </row>
   </sheetData>
